--- a/output/apl_standings.xlsx
+++ b/output/apl_standings.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -486,31 +486,31 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>U0010</t>
+          <t>U0003</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Marvel</t>
+          <t>Yaroslav</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E2" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="F2" t="n">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="G2" t="n">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="H2" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="I2" t="n">
-        <v>40</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3">
@@ -519,31 +519,163 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>U0006</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Sheva</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>8</v>
+      </c>
+      <c r="E3" t="n">
+        <v>3</v>
+      </c>
+      <c r="F3" t="n">
+        <v>14</v>
+      </c>
+      <c r="G3" t="n">
+        <v>14</v>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+      <c r="I3" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>U0007</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Світлана Петух</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>10</v>
+      </c>
+      <c r="E4" t="n">
+        <v>2</v>
+      </c>
+      <c r="F4" t="n">
+        <v>14</v>
+      </c>
+      <c r="G4" t="n">
+        <v>14</v>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+      <c r="I4" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>U0005</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Дмитро</t>
-        </is>
-      </c>
-      <c r="D3" t="n">
-        <v>10</v>
-      </c>
-      <c r="E3" t="n">
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Bogdan</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>8</v>
+      </c>
+      <c r="E5" t="n">
         <v>2</v>
       </c>
-      <c r="F3" t="n">
+      <c r="F5" t="n">
         <v>12</v>
       </c>
-      <c r="G3" t="n">
+      <c r="G5" t="n">
         <v>12</v>
       </c>
-      <c r="H3" t="n">
+      <c r="H5" t="n">
         <v>2</v>
       </c>
-      <c r="I3" t="n">
+      <c r="I5" t="n">
         <v>12</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>U0004</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Alex</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>8</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>5</v>
+      </c>
+      <c r="G6" t="n">
+        <v>5</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>U0002</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>AA AA</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>8</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>4</v>
+      </c>
+      <c r="G7" t="n">
+        <v>4</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/output/apl_standings.xlsx
+++ b/output/apl_standings.xlsx
@@ -20,12 +20,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="187">
   <si>
     <t xml:space="preserve">Місце</t>
   </si>
   <si>
-    <t xml:space="preserve">ID користувача</t>
+    <t xml:space="preserve">User ID</t>
   </si>
   <si>
     <t xml:space="preserve">Ім'я</t>
@@ -34,19 +34,73 @@
     <t xml:space="preserve">Матчі</t>
   </si>
   <si>
-    <t xml:space="preserve">Точні рахунки</t>
+    <t xml:space="preserve">Точні прогнози матчів</t>
   </si>
   <si>
     <t xml:space="preserve">Загальні бали</t>
   </si>
   <si>
-    <t xml:space="preserve">Середня кількість балів за тур</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Тур 16 точні</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Тур 16 бали</t>
+    <t xml:space="preserve">Середня кількість балів за тури</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Тур 1 Точні прогнози матчів</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Тур 1 бали</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Тур 2 Точні прогнози матчів</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Тур 2 бали</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Тур 3 Точні прогнози матчів</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Тур 3 бали</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Тур 4 Точні прогнози матчів</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Тур 4 бали</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Тур 5 Точні прогнози матчів</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Тур 5 бали</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Тур 6 Точні прогнози матчів</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Тур 6 бали</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Тур 7 Точні прогнози матчів</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Тур 7 бали</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Тур 8 Точні прогнози матчів</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Тур 8 бали</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Тур 9 Точні прогнози матчів</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Тур 9 бали</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Тур 10 Точні прогнози матчів</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Тур 10 бали</t>
   </si>
   <si>
     <t xml:space="preserve">U0087</t>
@@ -521,6 +575,12 @@
   </si>
   <si>
     <t xml:space="preserve">Ігор Гаврилець</t>
+  </si>
+  <si>
+    <t xml:space="preserve">U0205</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brentford - Leeds - 1</t>
   </si>
 </sst>
 </file>
@@ -811,22 +871,29 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I81"/>
+  <dimension ref="A1:AA82"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F9" activeCellId="0" sqref="F9"/>
+      <selection pane="topLeft" activeCell="G14" activeCellId="0" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="16.58"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="26.26"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="10.16"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="15.6"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="23.56"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="14.98"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="31.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="13.15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="12.54"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="32.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="29.08"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="11.55"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="10" style="0" width="10.16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="29.08"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="17" style="0" width="10.16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="11.55"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="20" style="0" width="10.16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="24" style="0" width="29.08"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="25" style="0" width="11.55"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="26" style="0" width="30.07"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="27" style="0" width="12.54"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -857,28 +924,82 @@
       <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="n">
         <v>1</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="D2" s="0" t="n">
-        <v>10</v>
+        <v>110</v>
       </c>
       <c r="E2" s="0" t="n">
-        <v>3</v>
+        <v>33</v>
       </c>
       <c r="F2" s="0" t="n">
-        <v>18</v>
+        <v>198</v>
       </c>
       <c r="G2" s="0" t="n">
-        <v>18</v>
+        <v>19.8</v>
       </c>
       <c r="H2" s="0" t="n">
         <v>3</v>
@@ -886,33 +1007,141 @@
       <c r="I2" s="0" t="n">
         <v>18</v>
       </c>
+      <c r="J2" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="K2" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="L2" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="M2" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="N2" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="O2" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="P2" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="Q2" s="0" t="n">
+        <v>36</v>
+      </c>
+      <c r="R2" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="S2" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="T2" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="U2" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="V2" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="W2" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="X2" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y2" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="Z2" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="AA2" s="0" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="n">
         <v>2</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="D3" s="0" t="n">
-        <v>10</v>
+        <v>110</v>
       </c>
       <c r="E3" s="0" t="n">
-        <v>3</v>
+        <v>33</v>
       </c>
       <c r="F3" s="0" t="n">
-        <v>17</v>
+        <v>187</v>
       </c>
       <c r="G3" s="0" t="n">
-        <v>17</v>
+        <v>18.7</v>
       </c>
       <c r="H3" s="0" t="n">
         <v>3</v>
       </c>
       <c r="I3" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="J3" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="K3" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="L3" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="M3" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="N3" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="O3" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="P3" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="Q3" s="0" t="n">
+        <v>34</v>
+      </c>
+      <c r="R3" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="S3" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="T3" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="U3" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="V3" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="W3" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="X3" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y3" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="Z3" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="AA3" s="0" t="n">
         <v>17</v>
       </c>
     </row>
@@ -921,27 +1150,81 @@
         <v>3</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="D4" s="0" t="n">
-        <v>10</v>
+        <v>110</v>
       </c>
       <c r="E4" s="0" t="n">
-        <v>3</v>
+        <v>33</v>
       </c>
       <c r="F4" s="0" t="n">
-        <v>16</v>
+        <v>176</v>
       </c>
       <c r="G4" s="0" t="n">
-        <v>16</v>
+        <v>17.6</v>
       </c>
       <c r="H4" s="0" t="n">
         <v>3</v>
       </c>
       <c r="I4" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="J4" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="K4" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="L4" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="M4" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="N4" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="O4" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="P4" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="Q4" s="0" t="n">
+        <v>32</v>
+      </c>
+      <c r="R4" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="S4" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="T4" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="U4" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="V4" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="W4" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="X4" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y4" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="Z4" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="AA4" s="0" t="n">
         <v>16</v>
       </c>
     </row>
@@ -950,27 +1233,81 @@
         <v>4</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="D5" s="0" t="n">
-        <v>10</v>
+        <v>110</v>
       </c>
       <c r="E5" s="0" t="n">
-        <v>3</v>
+        <v>33</v>
       </c>
       <c r="F5" s="0" t="n">
-        <v>16</v>
+        <v>176</v>
       </c>
       <c r="G5" s="0" t="n">
-        <v>16</v>
+        <v>17.6</v>
       </c>
       <c r="H5" s="0" t="n">
         <v>3</v>
       </c>
       <c r="I5" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="J5" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="K5" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="L5" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="M5" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="N5" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="O5" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="P5" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="Q5" s="0" t="n">
+        <v>32</v>
+      </c>
+      <c r="R5" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="S5" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="T5" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="U5" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="V5" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="W5" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="X5" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y5" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="Z5" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="AA5" s="0" t="n">
         <v>16</v>
       </c>
     </row>
@@ -979,27 +1316,81 @@
         <v>5</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="D6" s="0" t="n">
-        <v>10</v>
+        <v>110</v>
       </c>
       <c r="E6" s="0" t="n">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="F6" s="0" t="n">
+        <v>165</v>
+      </c>
+      <c r="G6" s="0" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="H6" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="I6" s="0" t="n">
         <v>15</v>
       </c>
-      <c r="G6" s="0" t="n">
+      <c r="J6" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="K6" s="0" t="n">
         <v>15</v>
       </c>
-      <c r="H6" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="I6" s="0" t="n">
+      <c r="L6" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="M6" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="N6" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="O6" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="P6" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q6" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="R6" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="S6" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="T6" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="U6" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="V6" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="W6" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="X6" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="Y6" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z6" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA6" s="0" t="n">
         <v>15</v>
       </c>
     </row>
@@ -1008,27 +1399,81 @@
         <v>6</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="D7" s="0" t="n">
-        <v>10</v>
+        <v>110</v>
       </c>
       <c r="E7" s="0" t="n">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="F7" s="0" t="n">
+        <v>154</v>
+      </c>
+      <c r="G7" s="0" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="H7" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="I7" s="0" t="n">
         <v>14</v>
       </c>
-      <c r="G7" s="0" t="n">
+      <c r="J7" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="K7" s="0" t="n">
         <v>14</v>
       </c>
-      <c r="H7" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="I7" s="0" t="n">
+      <c r="L7" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="M7" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="N7" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="O7" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="P7" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q7" s="0" t="n">
+        <v>28</v>
+      </c>
+      <c r="R7" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="S7" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="T7" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="U7" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="V7" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="W7" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="X7" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="Y7" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="Z7" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA7" s="0" t="n">
         <v>14</v>
       </c>
     </row>
@@ -1037,22 +1482,22 @@
         <v>7</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="C8" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="D8" s="0" t="n">
+        <v>110</v>
+      </c>
+      <c r="E8" s="0" t="n">
         <v>22</v>
       </c>
-      <c r="D8" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="E8" s="0" t="n">
-        <v>2</v>
-      </c>
       <c r="F8" s="0" t="n">
-        <v>14</v>
+        <v>154</v>
       </c>
       <c r="G8" s="0" t="n">
-        <v>14</v>
+        <v>15.4</v>
       </c>
       <c r="H8" s="0" t="n">
         <v>2</v>
@@ -1060,28 +1505,82 @@
       <c r="I8" s="0" t="n">
         <v>14</v>
       </c>
+      <c r="J8" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="K8" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="L8" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="M8" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="N8" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="O8" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="P8" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q8" s="0" t="n">
+        <v>28</v>
+      </c>
+      <c r="R8" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="S8" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="T8" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="U8" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="V8" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="W8" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="X8" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="Y8" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="Z8" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA8" s="0" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="n">
         <v>8</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="D9" s="0" t="n">
-        <v>10</v>
+        <v>110</v>
       </c>
       <c r="E9" s="0" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="F9" s="0" t="n">
-        <v>14</v>
+        <v>154</v>
       </c>
       <c r="G9" s="0" t="n">
-        <v>14</v>
+        <v>15.4</v>
       </c>
       <c r="H9" s="0" t="n">
         <v>1</v>
@@ -1089,33 +1588,141 @@
       <c r="I9" s="0" t="n">
         <v>14</v>
       </c>
+      <c r="J9" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K9" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="L9" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="N9" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="O9" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="P9" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q9" s="0" t="n">
+        <v>28</v>
+      </c>
+      <c r="R9" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="S9" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="T9" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="U9" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="V9" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="W9" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="X9" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y9" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="Z9" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA9" s="0" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="n">
         <v>9</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="C10" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="D10" s="0" t="n">
+        <v>110</v>
+      </c>
+      <c r="E10" s="0" t="n">
+        <v>22</v>
+      </c>
+      <c r="F10" s="0" t="n">
+        <v>143</v>
+      </c>
+      <c r="G10" s="0" t="n">
+        <v>14.3</v>
+      </c>
+      <c r="H10" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="I10" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="J10" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="K10" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="L10" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="M10" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="N10" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="O10" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="P10" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q10" s="0" t="n">
         <v>26</v>
       </c>
-      <c r="D10" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="E10" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="F10" s="0" t="n">
+      <c r="R10" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="S10" s="0" t="n">
         <v>13</v>
       </c>
-      <c r="G10" s="0" t="n">
+      <c r="T10" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="U10" s="0" t="n">
         <v>13</v>
       </c>
-      <c r="H10" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="I10" s="0" t="n">
+      <c r="V10" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="W10" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="X10" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="Y10" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="Z10" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA10" s="0" t="n">
         <v>13</v>
       </c>
     </row>
@@ -1124,22 +1731,22 @@
         <v>10</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="D11" s="0" t="n">
-        <v>10</v>
+        <v>110</v>
       </c>
       <c r="E11" s="0" t="n">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="F11" s="0" t="n">
-        <v>13</v>
+        <v>143</v>
       </c>
       <c r="G11" s="0" t="n">
-        <v>13</v>
+        <v>14.3</v>
       </c>
       <c r="H11" s="0" t="n">
         <v>2</v>
@@ -1147,33 +1754,141 @@
       <c r="I11" s="0" t="n">
         <v>13</v>
       </c>
+      <c r="J11" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="K11" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="L11" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="M11" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="N11" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="O11" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="P11" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q11" s="0" t="n">
+        <v>26</v>
+      </c>
+      <c r="R11" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="S11" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="T11" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="U11" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="V11" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="W11" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="X11" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="Y11" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="Z11" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA11" s="0" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="n">
         <v>11</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="D12" s="0" t="n">
-        <v>10</v>
+        <v>110</v>
       </c>
       <c r="E12" s="0" t="n">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="F12" s="0" t="n">
+        <v>143</v>
+      </c>
+      <c r="G12" s="0" t="n">
+        <v>14.3</v>
+      </c>
+      <c r="H12" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="I12" s="0" t="n">
         <v>13</v>
       </c>
-      <c r="G12" s="0" t="n">
+      <c r="J12" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="K12" s="0" t="n">
         <v>13</v>
       </c>
-      <c r="H12" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="I12" s="0" t="n">
+      <c r="L12" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="M12" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="N12" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="O12" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="P12" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q12" s="0" t="n">
+        <v>26</v>
+      </c>
+      <c r="R12" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="S12" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="T12" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="U12" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="V12" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="W12" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="X12" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="Y12" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="Z12" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA12" s="0" t="n">
         <v>13</v>
       </c>
     </row>
@@ -1182,27 +1897,81 @@
         <v>12</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="D13" s="0" t="n">
-        <v>10</v>
+        <v>110</v>
       </c>
       <c r="E13" s="0" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="F13" s="0" t="n">
+        <v>143</v>
+      </c>
+      <c r="G13" s="0" t="n">
+        <v>14.3</v>
+      </c>
+      <c r="H13" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I13" s="0" t="n">
         <v>13</v>
       </c>
-      <c r="G13" s="0" t="n">
+      <c r="J13" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K13" s="0" t="n">
         <v>13</v>
       </c>
-      <c r="H13" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="I13" s="0" t="n">
+      <c r="L13" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="N13" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="O13" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="P13" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q13" s="0" t="n">
+        <v>26</v>
+      </c>
+      <c r="R13" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="S13" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="T13" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="U13" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="V13" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="W13" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="X13" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y13" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="Z13" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA13" s="0" t="n">
         <v>13</v>
       </c>
     </row>
@@ -1211,27 +1980,81 @@
         <v>13</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="D14" s="0" t="n">
-        <v>10</v>
+        <v>110</v>
       </c>
       <c r="E14" s="0" t="n">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="F14" s="0" t="n">
+        <v>132</v>
+      </c>
+      <c r="G14" s="0" t="n">
+        <v>13.2</v>
+      </c>
+      <c r="H14" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="I14" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="G14" s="0" t="n">
+      <c r="J14" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="K14" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="H14" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="I14" s="0" t="n">
+      <c r="L14" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="M14" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="N14" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="O14" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="P14" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q14" s="0" t="n">
+        <v>24</v>
+      </c>
+      <c r="R14" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="S14" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="T14" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="U14" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="V14" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="W14" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="X14" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="Y14" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="Z14" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA14" s="0" t="n">
         <v>12</v>
       </c>
     </row>
@@ -1240,27 +2063,81 @@
         <v>14</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>35</v>
+        <v>53</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>36</v>
+        <v>54</v>
       </c>
       <c r="D15" s="0" t="n">
-        <v>10</v>
+        <v>110</v>
       </c>
       <c r="E15" s="0" t="n">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="F15" s="0" t="n">
+        <v>132</v>
+      </c>
+      <c r="G15" s="0" t="n">
+        <v>13.2</v>
+      </c>
+      <c r="H15" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="I15" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="G15" s="0" t="n">
+      <c r="J15" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="K15" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="H15" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="I15" s="0" t="n">
+      <c r="L15" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="M15" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="N15" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="O15" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="P15" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q15" s="0" t="n">
+        <v>24</v>
+      </c>
+      <c r="R15" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="S15" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="T15" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="U15" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="V15" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="W15" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="X15" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="Y15" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="Z15" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA15" s="0" t="n">
         <v>12</v>
       </c>
     </row>
@@ -1269,27 +2146,81 @@
         <v>15</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>37</v>
+        <v>55</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="D16" s="0" t="n">
-        <v>10</v>
+        <v>110</v>
       </c>
       <c r="E16" s="0" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="F16" s="0" t="n">
+        <v>132</v>
+      </c>
+      <c r="G16" s="0" t="n">
+        <v>13.2</v>
+      </c>
+      <c r="H16" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I16" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="G16" s="0" t="n">
+      <c r="J16" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K16" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="H16" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="I16" s="0" t="n">
+      <c r="L16" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="N16" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="O16" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="P16" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q16" s="0" t="n">
+        <v>24</v>
+      </c>
+      <c r="R16" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="S16" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="T16" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="U16" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="V16" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="W16" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="X16" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y16" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="Z16" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA16" s="0" t="n">
         <v>12</v>
       </c>
     </row>
@@ -1298,27 +2229,81 @@
         <v>16</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>40</v>
+        <v>58</v>
       </c>
       <c r="D17" s="0" t="n">
-        <v>10</v>
+        <v>110</v>
       </c>
       <c r="E17" s="0" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="F17" s="0" t="n">
+        <v>132</v>
+      </c>
+      <c r="G17" s="0" t="n">
+        <v>13.2</v>
+      </c>
+      <c r="H17" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I17" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="G17" s="0" t="n">
+      <c r="J17" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K17" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="H17" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="I17" s="0" t="n">
+      <c r="L17" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="N17" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="O17" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="P17" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q17" s="0" t="n">
+        <v>24</v>
+      </c>
+      <c r="R17" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="S17" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="T17" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="U17" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="V17" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="W17" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="X17" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y17" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="Z17" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA17" s="0" t="n">
         <v>12</v>
       </c>
     </row>
@@ -1327,27 +2312,81 @@
         <v>17</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>41</v>
+        <v>59</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>42</v>
+        <v>60</v>
       </c>
       <c r="D18" s="0" t="n">
-        <v>10</v>
+        <v>110</v>
       </c>
       <c r="E18" s="0" t="n">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="F18" s="0" t="n">
-        <v>11</v>
+        <v>121</v>
       </c>
       <c r="G18" s="0" t="n">
-        <v>11</v>
+        <v>12.1</v>
       </c>
       <c r="H18" s="0" t="n">
         <v>2</v>
       </c>
       <c r="I18" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="J18" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="K18" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="L18" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="M18" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="N18" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="O18" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="P18" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q18" s="0" t="n">
+        <v>22</v>
+      </c>
+      <c r="R18" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="S18" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="T18" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="U18" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="V18" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="W18" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="X18" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="Y18" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z18" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA18" s="0" t="n">
         <v>11</v>
       </c>
     </row>
@@ -1356,27 +2395,81 @@
         <v>18</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>43</v>
+        <v>61</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>44</v>
+        <v>62</v>
       </c>
       <c r="D19" s="0" t="n">
-        <v>10</v>
+        <v>110</v>
       </c>
       <c r="E19" s="0" t="n">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="F19" s="0" t="n">
-        <v>11</v>
+        <v>121</v>
       </c>
       <c r="G19" s="0" t="n">
-        <v>11</v>
+        <v>12.1</v>
       </c>
       <c r="H19" s="0" t="n">
         <v>2</v>
       </c>
       <c r="I19" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="J19" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="K19" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="L19" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="M19" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="N19" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="O19" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="P19" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q19" s="0" t="n">
+        <v>22</v>
+      </c>
+      <c r="R19" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="S19" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="T19" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="U19" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="V19" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="W19" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="X19" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="Y19" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z19" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA19" s="0" t="n">
         <v>11</v>
       </c>
     </row>
@@ -1385,27 +2478,81 @@
         <v>19</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>45</v>
+        <v>63</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>46</v>
+        <v>64</v>
       </c>
       <c r="D20" s="0" t="n">
-        <v>10</v>
+        <v>110</v>
       </c>
       <c r="E20" s="0" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="F20" s="0" t="n">
-        <v>11</v>
+        <v>121</v>
       </c>
       <c r="G20" s="0" t="n">
-        <v>11</v>
+        <v>12.1</v>
       </c>
       <c r="H20" s="0" t="n">
         <v>1</v>
       </c>
       <c r="I20" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="J20" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K20" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="L20" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="N20" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="O20" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="P20" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q20" s="0" t="n">
+        <v>22</v>
+      </c>
+      <c r="R20" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="S20" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="T20" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="U20" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="V20" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="W20" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="X20" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y20" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z20" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA20" s="0" t="n">
         <v>11</v>
       </c>
     </row>
@@ -1414,27 +2561,81 @@
         <v>20</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>47</v>
+        <v>65</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>48</v>
+        <v>66</v>
       </c>
       <c r="D21" s="0" t="n">
-        <v>10</v>
+        <v>110</v>
       </c>
       <c r="E21" s="0" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="F21" s="0" t="n">
-        <v>11</v>
+        <v>121</v>
       </c>
       <c r="G21" s="0" t="n">
-        <v>11</v>
+        <v>12.1</v>
       </c>
       <c r="H21" s="0" t="n">
         <v>1</v>
       </c>
       <c r="I21" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="J21" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K21" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="L21" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="N21" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="O21" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="P21" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q21" s="0" t="n">
+        <v>22</v>
+      </c>
+      <c r="R21" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="S21" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="T21" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="U21" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="V21" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="W21" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="X21" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y21" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z21" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA21" s="0" t="n">
         <v>11</v>
       </c>
     </row>
@@ -1443,27 +2644,81 @@
         <v>21</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>49</v>
+        <v>67</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>50</v>
+        <v>68</v>
       </c>
       <c r="D22" s="0" t="n">
-        <v>10</v>
+        <v>110</v>
       </c>
       <c r="E22" s="0" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="F22" s="0" t="n">
-        <v>11</v>
+        <v>121</v>
       </c>
       <c r="G22" s="0" t="n">
-        <v>11</v>
+        <v>12.1</v>
       </c>
       <c r="H22" s="0" t="n">
         <v>1</v>
       </c>
       <c r="I22" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="J22" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K22" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="L22" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="N22" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="O22" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="P22" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q22" s="0" t="n">
+        <v>22</v>
+      </c>
+      <c r="R22" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="S22" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="T22" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="U22" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="V22" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="W22" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="X22" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y22" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z22" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA22" s="0" t="n">
         <v>11</v>
       </c>
     </row>
@@ -1472,27 +2727,81 @@
         <v>22</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>51</v>
+        <v>69</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>52</v>
+        <v>70</v>
       </c>
       <c r="D23" s="0" t="n">
-        <v>10</v>
+        <v>110</v>
       </c>
       <c r="E23" s="0" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="F23" s="0" t="n">
-        <v>11</v>
+        <v>121</v>
       </c>
       <c r="G23" s="0" t="n">
-        <v>11</v>
+        <v>12.1</v>
       </c>
       <c r="H23" s="0" t="n">
         <v>1</v>
       </c>
       <c r="I23" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="J23" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K23" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="L23" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="N23" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="O23" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="P23" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q23" s="0" t="n">
+        <v>22</v>
+      </c>
+      <c r="R23" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="S23" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="T23" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="U23" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="V23" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="W23" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="X23" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y23" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z23" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA23" s="0" t="n">
         <v>11</v>
       </c>
     </row>
@@ -1501,27 +2810,81 @@
         <v>23</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>53</v>
+        <v>71</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>54</v>
+        <v>72</v>
       </c>
       <c r="D24" s="0" t="n">
-        <v>10</v>
+        <v>110</v>
       </c>
       <c r="E24" s="0" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="F24" s="0" t="n">
-        <v>11</v>
+        <v>121</v>
       </c>
       <c r="G24" s="0" t="n">
-        <v>11</v>
+        <v>12.1</v>
       </c>
       <c r="H24" s="0" t="n">
         <v>1</v>
       </c>
       <c r="I24" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="J24" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K24" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="L24" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="N24" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="O24" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="P24" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q24" s="0" t="n">
+        <v>22</v>
+      </c>
+      <c r="R24" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="S24" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="T24" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="U24" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="V24" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="W24" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="X24" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y24" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z24" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA24" s="0" t="n">
         <v>11</v>
       </c>
     </row>
@@ -1530,27 +2893,81 @@
         <v>24</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>55</v>
+        <v>73</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>56</v>
+        <v>74</v>
       </c>
       <c r="D25" s="0" t="n">
-        <v>10</v>
+        <v>110</v>
       </c>
       <c r="E25" s="0" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="F25" s="0" t="n">
-        <v>11</v>
+        <v>121</v>
       </c>
       <c r="G25" s="0" t="n">
-        <v>11</v>
+        <v>12.1</v>
       </c>
       <c r="H25" s="0" t="n">
         <v>1</v>
       </c>
       <c r="I25" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="J25" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K25" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="L25" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="N25" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="O25" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="P25" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q25" s="0" t="n">
+        <v>22</v>
+      </c>
+      <c r="R25" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="S25" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="T25" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="U25" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="V25" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="W25" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="X25" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y25" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z25" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA25" s="0" t="n">
         <v>11</v>
       </c>
     </row>
@@ -1559,27 +2976,81 @@
         <v>25</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>57</v>
+        <v>75</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>58</v>
+        <v>76</v>
       </c>
       <c r="D26" s="0" t="n">
-        <v>10</v>
+        <v>110</v>
       </c>
       <c r="E26" s="0" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="F26" s="0" t="n">
-        <v>11</v>
+        <v>121</v>
       </c>
       <c r="G26" s="0" t="n">
-        <v>11</v>
+        <v>12.1</v>
       </c>
       <c r="H26" s="0" t="n">
         <v>1</v>
       </c>
       <c r="I26" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="J26" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K26" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="L26" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="N26" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="O26" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="P26" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q26" s="0" t="n">
+        <v>22</v>
+      </c>
+      <c r="R26" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="S26" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="T26" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="U26" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="V26" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="W26" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="X26" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y26" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z26" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA26" s="0" t="n">
         <v>11</v>
       </c>
     </row>
@@ -1588,27 +3059,81 @@
         <v>26</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>59</v>
+        <v>77</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>60</v>
+        <v>78</v>
       </c>
       <c r="D27" s="0" t="n">
-        <v>10</v>
+        <v>110</v>
       </c>
       <c r="E27" s="0" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="F27" s="0" t="n">
-        <v>11</v>
+        <v>121</v>
       </c>
       <c r="G27" s="0" t="n">
-        <v>11</v>
+        <v>12.1</v>
       </c>
       <c r="H27" s="0" t="n">
         <v>1</v>
       </c>
       <c r="I27" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="J27" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K27" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="L27" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="N27" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="O27" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="P27" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q27" s="0" t="n">
+        <v>22</v>
+      </c>
+      <c r="R27" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="S27" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="T27" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="U27" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="V27" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="W27" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="X27" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y27" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z27" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA27" s="0" t="n">
         <v>11</v>
       </c>
     </row>
@@ -1617,27 +3142,81 @@
         <v>27</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>61</v>
+        <v>79</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>62</v>
+        <v>80</v>
       </c>
       <c r="D28" s="0" t="n">
-        <v>10</v>
+        <v>110</v>
       </c>
       <c r="E28" s="0" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="F28" s="0" t="n">
-        <v>11</v>
+        <v>121</v>
       </c>
       <c r="G28" s="0" t="n">
-        <v>11</v>
+        <v>12.1</v>
       </c>
       <c r="H28" s="0" t="n">
         <v>1</v>
       </c>
       <c r="I28" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="J28" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K28" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="L28" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="N28" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="O28" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="P28" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q28" s="0" t="n">
+        <v>22</v>
+      </c>
+      <c r="R28" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="S28" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="T28" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="U28" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="V28" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="W28" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="X28" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y28" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z28" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA28" s="0" t="n">
         <v>11</v>
       </c>
     </row>
@@ -1646,27 +3225,81 @@
         <v>28</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>63</v>
+        <v>81</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>64</v>
+        <v>82</v>
       </c>
       <c r="D29" s="0" t="n">
-        <v>10</v>
+        <v>110</v>
       </c>
       <c r="E29" s="0" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="F29" s="0" t="n">
-        <v>11</v>
+        <v>121</v>
       </c>
       <c r="G29" s="0" t="n">
-        <v>11</v>
+        <v>12.1</v>
       </c>
       <c r="H29" s="0" t="n">
         <v>1</v>
       </c>
       <c r="I29" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="J29" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K29" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="L29" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="N29" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="O29" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="P29" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q29" s="0" t="n">
+        <v>22</v>
+      </c>
+      <c r="R29" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="S29" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="T29" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="U29" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="V29" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="W29" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="X29" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y29" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z29" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA29" s="0" t="n">
         <v>11</v>
       </c>
     </row>
@@ -1675,27 +3308,81 @@
         <v>29</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>65</v>
+        <v>83</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>66</v>
+        <v>84</v>
       </c>
       <c r="D30" s="0" t="n">
-        <v>10</v>
+        <v>110</v>
       </c>
       <c r="E30" s="0" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="F30" s="0" t="n">
-        <v>11</v>
+        <v>121</v>
       </c>
       <c r="G30" s="0" t="n">
-        <v>11</v>
+        <v>12.1</v>
       </c>
       <c r="H30" s="0" t="n">
         <v>1</v>
       </c>
       <c r="I30" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="J30" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K30" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="L30" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="N30" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="O30" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="P30" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q30" s="0" t="n">
+        <v>22</v>
+      </c>
+      <c r="R30" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="S30" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="T30" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="U30" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="V30" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="W30" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="X30" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y30" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z30" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA30" s="0" t="n">
         <v>11</v>
       </c>
     </row>
@@ -1704,27 +3391,81 @@
         <v>30</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>67</v>
+        <v>85</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>68</v>
+        <v>86</v>
       </c>
       <c r="D31" s="0" t="n">
-        <v>10</v>
+        <v>110</v>
       </c>
       <c r="E31" s="0" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="F31" s="0" t="n">
-        <v>11</v>
+        <v>121</v>
       </c>
       <c r="G31" s="0" t="n">
-        <v>11</v>
+        <v>12.1</v>
       </c>
       <c r="H31" s="0" t="n">
         <v>1</v>
       </c>
       <c r="I31" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="J31" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K31" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="L31" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="N31" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="O31" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="P31" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q31" s="0" t="n">
+        <v>22</v>
+      </c>
+      <c r="R31" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="S31" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="T31" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="U31" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="V31" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="W31" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="X31" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y31" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z31" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA31" s="0" t="n">
         <v>11</v>
       </c>
     </row>
@@ -1733,27 +3474,81 @@
         <v>31</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>69</v>
+        <v>87</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>70</v>
+        <v>88</v>
       </c>
       <c r="D32" s="0" t="n">
-        <v>10</v>
+        <v>110</v>
       </c>
       <c r="E32" s="0" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="F32" s="0" t="n">
-        <v>11</v>
+        <v>121</v>
       </c>
       <c r="G32" s="0" t="n">
-        <v>11</v>
+        <v>12.1</v>
       </c>
       <c r="H32" s="0" t="n">
         <v>1</v>
       </c>
       <c r="I32" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="J32" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K32" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="L32" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="N32" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="O32" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="P32" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q32" s="0" t="n">
+        <v>22</v>
+      </c>
+      <c r="R32" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="S32" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="T32" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="U32" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="V32" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="W32" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="X32" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y32" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z32" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA32" s="0" t="n">
         <v>11</v>
       </c>
     </row>
@@ -1762,27 +3557,81 @@
         <v>32</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>71</v>
+        <v>89</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>72</v>
+        <v>90</v>
       </c>
       <c r="D33" s="0" t="n">
+        <v>110</v>
+      </c>
+      <c r="E33" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="F33" s="0" t="n">
+        <v>110</v>
+      </c>
+      <c r="G33" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="H33" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I33" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="E33" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F33" s="0" t="n">
+      <c r="J33" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K33" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="G33" s="0" t="n">
+      <c r="L33" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="H33" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="I33" s="0" t="n">
+      <c r="N33" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="O33" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="P33" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q33" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="R33" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="S33" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="T33" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="U33" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="V33" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="W33" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="X33" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y33" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z33" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA33" s="0" t="n">
         <v>10</v>
       </c>
     </row>
@@ -1791,27 +3640,81 @@
         <v>33</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>73</v>
+        <v>91</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>74</v>
+        <v>92</v>
       </c>
       <c r="D34" s="0" t="n">
+        <v>110</v>
+      </c>
+      <c r="E34" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="F34" s="0" t="n">
+        <v>110</v>
+      </c>
+      <c r="G34" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="H34" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I34" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="E34" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F34" s="0" t="n">
+      <c r="J34" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K34" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="G34" s="0" t="n">
+      <c r="L34" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="H34" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="I34" s="0" t="n">
+      <c r="N34" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="O34" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="P34" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q34" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="R34" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="S34" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="T34" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="U34" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="V34" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="W34" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="X34" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y34" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z34" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA34" s="0" t="n">
         <v>10</v>
       </c>
     </row>
@@ -1820,27 +3723,81 @@
         <v>34</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>75</v>
+        <v>93</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>76</v>
+        <v>94</v>
       </c>
       <c r="D35" s="0" t="n">
+        <v>110</v>
+      </c>
+      <c r="E35" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="F35" s="0" t="n">
+        <v>110</v>
+      </c>
+      <c r="G35" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="H35" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I35" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="E35" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F35" s="0" t="n">
+      <c r="J35" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K35" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="G35" s="0" t="n">
+      <c r="L35" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="H35" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="I35" s="0" t="n">
+      <c r="N35" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="O35" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="P35" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q35" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="R35" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="S35" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="T35" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="U35" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="V35" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="W35" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="X35" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y35" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z35" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA35" s="0" t="n">
         <v>10</v>
       </c>
     </row>
@@ -1849,27 +3806,81 @@
         <v>35</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>77</v>
+        <v>95</v>
       </c>
       <c r="C36" s="0" t="s">
-        <v>78</v>
+        <v>96</v>
       </c>
       <c r="D36" s="0" t="n">
-        <v>9</v>
+        <v>99</v>
       </c>
       <c r="E36" s="0" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="F36" s="0" t="n">
+        <v>110</v>
+      </c>
+      <c r="G36" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="H36" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I36" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="G36" s="0" t="n">
+      <c r="J36" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K36" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="H36" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="I36" s="0" t="n">
+      <c r="L36" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="N36" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="O36" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="P36" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q36" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="R36" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="S36" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="T36" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="U36" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="V36" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="W36" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="X36" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y36" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z36" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA36" s="0" t="n">
         <v>10</v>
       </c>
     </row>
@@ -1878,27 +3889,81 @@
         <v>36</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>79</v>
+        <v>97</v>
       </c>
       <c r="C37" s="0" t="s">
-        <v>80</v>
+        <v>98</v>
       </c>
       <c r="D37" s="0" t="n">
-        <v>8</v>
+        <v>88</v>
       </c>
       <c r="E37" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F37" s="0" t="n">
+        <v>110</v>
+      </c>
+      <c r="G37" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="H37" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I37" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="G37" s="0" t="n">
+      <c r="J37" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K37" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="H37" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" s="0" t="n">
+      <c r="L37" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="M37" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="N37" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O37" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="P37" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q37" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="R37" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S37" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="T37" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="U37" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="V37" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="X37" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y37" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z37" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA37" s="0" t="n">
         <v>10</v>
       </c>
     </row>
@@ -1907,27 +3972,81 @@
         <v>37</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>81</v>
+        <v>99</v>
       </c>
       <c r="C38" s="0" t="s">
-        <v>82</v>
+        <v>100</v>
       </c>
       <c r="D38" s="0" t="n">
-        <v>10</v>
+        <v>110</v>
       </c>
       <c r="E38" s="0" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="F38" s="0" t="n">
-        <v>9</v>
+        <v>99</v>
       </c>
       <c r="G38" s="0" t="n">
-        <v>9</v>
+        <v>9.9</v>
       </c>
       <c r="H38" s="0" t="n">
         <v>1</v>
       </c>
       <c r="I38" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="J38" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K38" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="L38" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="N38" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="O38" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="P38" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q38" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="R38" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="S38" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="T38" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="U38" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="V38" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="W38" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="X38" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y38" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z38" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA38" s="0" t="n">
         <v>9</v>
       </c>
     </row>
@@ -1936,27 +4055,81 @@
         <v>38</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>83</v>
+        <v>101</v>
       </c>
       <c r="C39" s="0" t="s">
-        <v>84</v>
+        <v>102</v>
       </c>
       <c r="D39" s="0" t="n">
-        <v>10</v>
+        <v>110</v>
       </c>
       <c r="E39" s="0" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="F39" s="0" t="n">
-        <v>9</v>
+        <v>99</v>
       </c>
       <c r="G39" s="0" t="n">
-        <v>9</v>
+        <v>9.9</v>
       </c>
       <c r="H39" s="0" t="n">
         <v>1</v>
       </c>
       <c r="I39" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="J39" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K39" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="L39" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="N39" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="O39" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="P39" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q39" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="R39" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="S39" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="T39" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="U39" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="V39" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="W39" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="X39" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y39" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z39" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA39" s="0" t="n">
         <v>9</v>
       </c>
     </row>
@@ -1965,27 +4138,81 @@
         <v>39</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>85</v>
+        <v>103</v>
       </c>
       <c r="C40" s="0" t="s">
-        <v>86</v>
+        <v>104</v>
       </c>
       <c r="D40" s="0" t="n">
-        <v>10</v>
+        <v>110</v>
       </c>
       <c r="E40" s="0" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="F40" s="0" t="n">
-        <v>9</v>
+        <v>99</v>
       </c>
       <c r="G40" s="0" t="n">
-        <v>9</v>
+        <v>9.9</v>
       </c>
       <c r="H40" s="0" t="n">
         <v>1</v>
       </c>
       <c r="I40" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="J40" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K40" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="L40" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="N40" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="O40" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="P40" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q40" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="R40" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="S40" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="T40" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="U40" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="V40" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="W40" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="X40" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y40" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z40" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA40" s="0" t="n">
         <v>9</v>
       </c>
     </row>
@@ -1994,27 +4221,81 @@
         <v>40</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>87</v>
+        <v>105</v>
       </c>
       <c r="C41" s="0" t="s">
-        <v>88</v>
+        <v>106</v>
       </c>
       <c r="D41" s="0" t="n">
-        <v>10</v>
+        <v>110</v>
       </c>
       <c r="E41" s="0" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="F41" s="0" t="n">
-        <v>9</v>
+        <v>99</v>
       </c>
       <c r="G41" s="0" t="n">
-        <v>9</v>
+        <v>9.9</v>
       </c>
       <c r="H41" s="0" t="n">
         <v>1</v>
       </c>
       <c r="I41" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="J41" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K41" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="L41" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="N41" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="O41" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="P41" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q41" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="R41" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="S41" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="T41" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="U41" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="V41" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="W41" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="X41" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y41" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z41" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA41" s="0" t="n">
         <v>9</v>
       </c>
     </row>
@@ -2023,27 +4304,81 @@
         <v>41</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>89</v>
+        <v>107</v>
       </c>
       <c r="C42" s="0" t="s">
-        <v>90</v>
+        <v>108</v>
       </c>
       <c r="D42" s="0" t="n">
-        <v>10</v>
+        <v>110</v>
       </c>
       <c r="E42" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F42" s="0" t="n">
-        <v>9</v>
+        <v>99</v>
       </c>
       <c r="G42" s="0" t="n">
-        <v>9</v>
+        <v>9.9</v>
       </c>
       <c r="H42" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I42" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="J42" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K42" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="L42" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="M42" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="N42" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O42" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="P42" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q42" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="R42" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S42" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="T42" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="U42" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="V42" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="X42" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y42" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z42" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA42" s="0" t="n">
         <v>9</v>
       </c>
     </row>
@@ -2052,27 +4387,81 @@
         <v>42</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>91</v>
+        <v>109</v>
       </c>
       <c r="C43" s="0" t="s">
-        <v>92</v>
+        <v>110</v>
       </c>
       <c r="D43" s="0" t="n">
-        <v>10</v>
+        <v>110</v>
       </c>
       <c r="E43" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F43" s="0" t="n">
-        <v>9</v>
+        <v>99</v>
       </c>
       <c r="G43" s="0" t="n">
-        <v>9</v>
+        <v>9.9</v>
       </c>
       <c r="H43" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I43" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="J43" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K43" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="L43" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="M43" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="N43" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O43" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="P43" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q43" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="R43" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S43" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="T43" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="U43" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="V43" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="X43" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y43" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z43" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA43" s="0" t="n">
         <v>9</v>
       </c>
     </row>
@@ -2081,27 +4470,81 @@
         <v>43</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>93</v>
+        <v>111</v>
       </c>
       <c r="C44" s="0" t="s">
-        <v>94</v>
+        <v>112</v>
       </c>
       <c r="D44" s="0" t="n">
-        <v>10</v>
+        <v>110</v>
       </c>
       <c r="E44" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F44" s="0" t="n">
-        <v>9</v>
+        <v>99</v>
       </c>
       <c r="G44" s="0" t="n">
-        <v>9</v>
+        <v>9.9</v>
       </c>
       <c r="H44" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I44" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="J44" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K44" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="L44" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="M44" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="N44" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O44" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="P44" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q44" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="R44" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S44" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="T44" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="U44" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="V44" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="X44" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y44" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z44" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA44" s="0" t="n">
         <v>9</v>
       </c>
     </row>
@@ -2110,27 +4553,81 @@
         <v>44</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>95</v>
+        <v>113</v>
       </c>
       <c r="C45" s="0" t="s">
-        <v>96</v>
+        <v>114</v>
       </c>
       <c r="D45" s="0" t="n">
-        <v>10</v>
+        <v>110</v>
       </c>
       <c r="E45" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F45" s="0" t="n">
-        <v>9</v>
+        <v>99</v>
       </c>
       <c r="G45" s="0" t="n">
-        <v>9</v>
+        <v>9.9</v>
       </c>
       <c r="H45" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I45" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="J45" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K45" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="L45" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="M45" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="N45" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O45" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="P45" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q45" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="R45" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S45" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="T45" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="U45" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="V45" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="X45" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y45" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z45" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA45" s="0" t="n">
         <v>9</v>
       </c>
     </row>
@@ -2139,27 +4636,81 @@
         <v>45</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>97</v>
+        <v>115</v>
       </c>
       <c r="C46" s="0" t="s">
-        <v>98</v>
+        <v>116</v>
       </c>
       <c r="D46" s="0" t="n">
-        <v>10</v>
+        <v>110</v>
       </c>
       <c r="E46" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F46" s="0" t="n">
-        <v>9</v>
+        <v>99</v>
       </c>
       <c r="G46" s="0" t="n">
-        <v>9</v>
+        <v>9.9</v>
       </c>
       <c r="H46" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I46" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="J46" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K46" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="L46" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="M46" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="N46" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O46" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="P46" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q46" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="R46" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S46" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="T46" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="U46" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="V46" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="X46" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y46" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z46" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA46" s="0" t="n">
         <v>9</v>
       </c>
     </row>
@@ -2168,27 +4719,81 @@
         <v>46</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>99</v>
+        <v>117</v>
       </c>
       <c r="C47" s="0" t="s">
-        <v>100</v>
+        <v>118</v>
       </c>
       <c r="D47" s="0" t="n">
-        <v>10</v>
+        <v>110</v>
       </c>
       <c r="E47" s="0" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="F47" s="0" t="n">
-        <v>8</v>
+        <v>88</v>
       </c>
       <c r="G47" s="0" t="n">
-        <v>8</v>
+        <v>8.8</v>
       </c>
       <c r="H47" s="0" t="n">
         <v>1</v>
       </c>
       <c r="I47" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="J47" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K47" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="L47" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="N47" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="O47" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="P47" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q47" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="R47" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="S47" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="T47" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="U47" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="V47" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="W47" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="X47" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y47" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="Z47" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA47" s="0" t="n">
         <v>8</v>
       </c>
     </row>
@@ -2197,27 +4802,81 @@
         <v>47</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>101</v>
+        <v>119</v>
       </c>
       <c r="C48" s="0" t="s">
-        <v>102</v>
+        <v>120</v>
       </c>
       <c r="D48" s="0" t="n">
-        <v>10</v>
+        <v>110</v>
       </c>
       <c r="E48" s="0" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="F48" s="0" t="n">
-        <v>8</v>
+        <v>88</v>
       </c>
       <c r="G48" s="0" t="n">
-        <v>8</v>
+        <v>8.8</v>
       </c>
       <c r="H48" s="0" t="n">
         <v>1</v>
       </c>
       <c r="I48" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="J48" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K48" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="L48" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="N48" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="O48" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="P48" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q48" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="R48" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="S48" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="T48" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="U48" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="V48" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="W48" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="X48" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y48" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="Z48" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA48" s="0" t="n">
         <v>8</v>
       </c>
     </row>
@@ -2226,27 +4885,81 @@
         <v>48</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>103</v>
+        <v>121</v>
       </c>
       <c r="C49" s="0" t="s">
-        <v>104</v>
+        <v>122</v>
       </c>
       <c r="D49" s="0" t="n">
-        <v>10</v>
+        <v>110</v>
       </c>
       <c r="E49" s="0" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="F49" s="0" t="n">
-        <v>8</v>
+        <v>88</v>
       </c>
       <c r="G49" s="0" t="n">
-        <v>8</v>
+        <v>8.8</v>
       </c>
       <c r="H49" s="0" t="n">
         <v>1</v>
       </c>
       <c r="I49" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="J49" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K49" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="L49" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="N49" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="O49" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="P49" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q49" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="R49" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="S49" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="T49" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="U49" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="V49" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="W49" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="X49" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y49" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="Z49" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA49" s="0" t="n">
         <v>8</v>
       </c>
     </row>
@@ -2255,27 +4968,81 @@
         <v>49</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>105</v>
+        <v>123</v>
       </c>
       <c r="C50" s="0" t="s">
-        <v>106</v>
+        <v>124</v>
       </c>
       <c r="D50" s="0" t="n">
-        <v>10</v>
+        <v>110</v>
       </c>
       <c r="E50" s="0" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="F50" s="0" t="n">
-        <v>8</v>
+        <v>88</v>
       </c>
       <c r="G50" s="0" t="n">
-        <v>8</v>
+        <v>8.8</v>
       </c>
       <c r="H50" s="0" t="n">
         <v>1</v>
       </c>
       <c r="I50" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="J50" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K50" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="L50" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="N50" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="O50" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="P50" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q50" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="R50" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="S50" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="T50" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="U50" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="V50" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="W50" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="X50" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y50" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="Z50" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA50" s="0" t="n">
         <v>8</v>
       </c>
     </row>
@@ -2284,27 +5051,81 @@
         <v>50</v>
       </c>
       <c r="B51" s="0" t="s">
-        <v>107</v>
+        <v>125</v>
       </c>
       <c r="C51" s="0" t="s">
-        <v>108</v>
+        <v>126</v>
       </c>
       <c r="D51" s="0" t="n">
-        <v>10</v>
+        <v>110</v>
       </c>
       <c r="E51" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F51" s="0" t="n">
-        <v>8</v>
+        <v>88</v>
       </c>
       <c r="G51" s="0" t="n">
-        <v>8</v>
+        <v>8.8</v>
       </c>
       <c r="H51" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I51" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="J51" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K51" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="L51" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="M51" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="N51" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O51" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="P51" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q51" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="R51" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S51" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="T51" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="U51" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="V51" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="X51" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y51" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="Z51" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA51" s="0" t="n">
         <v>8</v>
       </c>
     </row>
@@ -2313,27 +5134,81 @@
         <v>51</v>
       </c>
       <c r="B52" s="0" t="s">
-        <v>109</v>
+        <v>127</v>
       </c>
       <c r="C52" s="0" t="s">
-        <v>110</v>
+        <v>128</v>
       </c>
       <c r="D52" s="0" t="n">
-        <v>10</v>
+        <v>110</v>
       </c>
       <c r="E52" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F52" s="0" t="n">
-        <v>8</v>
+        <v>88</v>
       </c>
       <c r="G52" s="0" t="n">
-        <v>8</v>
+        <v>8.8</v>
       </c>
       <c r="H52" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I52" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="J52" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K52" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="L52" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="M52" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="N52" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O52" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="P52" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q52" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="R52" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S52" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="T52" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="U52" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="V52" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="X52" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y52" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="Z52" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA52" s="0" t="n">
         <v>8</v>
       </c>
     </row>
@@ -2342,27 +5217,81 @@
         <v>52</v>
       </c>
       <c r="B53" s="0" t="s">
-        <v>111</v>
+        <v>129</v>
       </c>
       <c r="C53" s="0" t="s">
-        <v>112</v>
+        <v>130</v>
       </c>
       <c r="D53" s="0" t="n">
-        <v>10</v>
+        <v>110</v>
       </c>
       <c r="E53" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F53" s="0" t="n">
-        <v>8</v>
+        <v>88</v>
       </c>
       <c r="G53" s="0" t="n">
-        <v>8</v>
+        <v>8.8</v>
       </c>
       <c r="H53" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I53" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="J53" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K53" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="L53" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="M53" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="N53" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O53" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="P53" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q53" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="R53" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S53" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="T53" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="U53" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="V53" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="X53" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y53" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="Z53" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA53" s="0" t="n">
         <v>8</v>
       </c>
     </row>
@@ -2371,27 +5300,81 @@
         <v>53</v>
       </c>
       <c r="B54" s="0" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="C54" s="0" t="s">
-        <v>114</v>
+        <v>132</v>
       </c>
       <c r="D54" s="0" t="n">
-        <v>10</v>
+        <v>110</v>
       </c>
       <c r="E54" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F54" s="0" t="n">
-        <v>8</v>
+        <v>88</v>
       </c>
       <c r="G54" s="0" t="n">
-        <v>8</v>
+        <v>8.8</v>
       </c>
       <c r="H54" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I54" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="J54" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K54" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="L54" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="M54" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="N54" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O54" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="P54" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q54" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="R54" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S54" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="T54" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="U54" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="V54" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="X54" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y54" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="Z54" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA54" s="0" t="n">
         <v>8</v>
       </c>
     </row>
@@ -2400,27 +5383,81 @@
         <v>54</v>
       </c>
       <c r="B55" s="0" t="s">
-        <v>115</v>
+        <v>133</v>
       </c>
       <c r="C55" s="0" t="s">
-        <v>116</v>
+        <v>134</v>
       </c>
       <c r="D55" s="0" t="n">
-        <v>10</v>
+        <v>110</v>
       </c>
       <c r="E55" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F55" s="0" t="n">
-        <v>8</v>
+        <v>88</v>
       </c>
       <c r="G55" s="0" t="n">
-        <v>8</v>
+        <v>8.8</v>
       </c>
       <c r="H55" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I55" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="J55" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K55" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="L55" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="M55" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="N55" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O55" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="P55" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q55" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="R55" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S55" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="T55" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="U55" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="V55" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="X55" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y55" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="Z55" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA55" s="0" t="n">
         <v>8</v>
       </c>
     </row>
@@ -2429,27 +5466,81 @@
         <v>55</v>
       </c>
       <c r="B56" s="0" t="s">
-        <v>117</v>
+        <v>135</v>
       </c>
       <c r="C56" s="0" t="s">
-        <v>117</v>
+        <v>135</v>
       </c>
       <c r="D56" s="0" t="n">
-        <v>10</v>
+        <v>110</v>
       </c>
       <c r="E56" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F56" s="0" t="n">
-        <v>8</v>
+        <v>88</v>
       </c>
       <c r="G56" s="0" t="n">
-        <v>8</v>
+        <v>8.8</v>
       </c>
       <c r="H56" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I56" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="J56" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K56" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="L56" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="M56" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="N56" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O56" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="P56" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q56" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="R56" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S56" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="T56" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="U56" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="V56" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="X56" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y56" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="Z56" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA56" s="0" t="n">
         <v>8</v>
       </c>
     </row>
@@ -2458,27 +5549,81 @@
         <v>56</v>
       </c>
       <c r="B57" s="0" t="s">
-        <v>118</v>
+        <v>136</v>
       </c>
       <c r="C57" s="0" t="s">
-        <v>119</v>
+        <v>137</v>
       </c>
       <c r="D57" s="0" t="n">
-        <v>10</v>
+        <v>110</v>
       </c>
       <c r="E57" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F57" s="0" t="n">
-        <v>8</v>
+        <v>88</v>
       </c>
       <c r="G57" s="0" t="n">
-        <v>8</v>
+        <v>8.8</v>
       </c>
       <c r="H57" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I57" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="J57" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K57" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="L57" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="M57" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="N57" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O57" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="P57" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q57" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="R57" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S57" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="T57" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="U57" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="V57" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="X57" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y57" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="Z57" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA57" s="0" t="n">
         <v>8</v>
       </c>
     </row>
@@ -2487,27 +5632,81 @@
         <v>57</v>
       </c>
       <c r="B58" s="0" t="s">
-        <v>120</v>
+        <v>138</v>
       </c>
       <c r="C58" s="0" t="s">
-        <v>121</v>
+        <v>139</v>
       </c>
       <c r="D58" s="0" t="n">
-        <v>10</v>
+        <v>110</v>
       </c>
       <c r="E58" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F58" s="0" t="n">
-        <v>8</v>
+        <v>88</v>
       </c>
       <c r="G58" s="0" t="n">
-        <v>8</v>
+        <v>8.8</v>
       </c>
       <c r="H58" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I58" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="J58" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K58" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="L58" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="M58" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="N58" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O58" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="P58" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q58" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="R58" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S58" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="T58" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="U58" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="V58" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="X58" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y58" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="Z58" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA58" s="0" t="n">
         <v>8</v>
       </c>
     </row>
@@ -2516,27 +5715,81 @@
         <v>58</v>
       </c>
       <c r="B59" s="0" t="s">
-        <v>122</v>
+        <v>140</v>
       </c>
       <c r="C59" s="0" t="s">
-        <v>123</v>
+        <v>141</v>
       </c>
       <c r="D59" s="0" t="n">
-        <v>10</v>
+        <v>110</v>
       </c>
       <c r="E59" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F59" s="0" t="n">
-        <v>8</v>
+        <v>88</v>
       </c>
       <c r="G59" s="0" t="n">
-        <v>8</v>
+        <v>8.8</v>
       </c>
       <c r="H59" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I59" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="J59" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K59" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="L59" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="M59" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="N59" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O59" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="P59" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q59" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="R59" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S59" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="T59" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="U59" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="V59" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="X59" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y59" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="Z59" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA59" s="0" t="n">
         <v>8</v>
       </c>
     </row>
@@ -2545,27 +5798,81 @@
         <v>59</v>
       </c>
       <c r="B60" s="0" t="s">
-        <v>124</v>
+        <v>142</v>
       </c>
       <c r="C60" s="0" t="s">
-        <v>125</v>
+        <v>143</v>
       </c>
       <c r="D60" s="0" t="n">
-        <v>10</v>
+        <v>110</v>
       </c>
       <c r="E60" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F60" s="0" t="n">
+        <v>77</v>
+      </c>
+      <c r="G60" s="0" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="H60" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I60" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="G60" s="0" t="n">
+      <c r="J60" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K60" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="H60" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I60" s="0" t="n">
+      <c r="L60" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="M60" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="N60" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O60" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="P60" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q60" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="R60" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S60" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="T60" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="U60" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="V60" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="X60" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y60" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="Z60" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA60" s="0" t="n">
         <v>7</v>
       </c>
     </row>
@@ -2574,27 +5881,81 @@
         <v>60</v>
       </c>
       <c r="B61" s="0" t="s">
-        <v>126</v>
+        <v>144</v>
       </c>
       <c r="C61" s="0" t="s">
-        <v>127</v>
+        <v>145</v>
       </c>
       <c r="D61" s="0" t="n">
-        <v>10</v>
+        <v>110</v>
       </c>
       <c r="E61" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F61" s="0" t="n">
+        <v>77</v>
+      </c>
+      <c r="G61" s="0" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="H61" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I61" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="G61" s="0" t="n">
+      <c r="J61" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K61" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="H61" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I61" s="0" t="n">
+      <c r="L61" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="M61" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="N61" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O61" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="P61" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q61" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="R61" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S61" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="T61" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="U61" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="V61" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="X61" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y61" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="Z61" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA61" s="0" t="n">
         <v>7</v>
       </c>
     </row>
@@ -2603,27 +5964,81 @@
         <v>61</v>
       </c>
       <c r="B62" s="0" t="s">
-        <v>128</v>
+        <v>146</v>
       </c>
       <c r="C62" s="0" t="s">
-        <v>129</v>
+        <v>147</v>
       </c>
       <c r="D62" s="0" t="n">
-        <v>10</v>
+        <v>110</v>
       </c>
       <c r="E62" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F62" s="0" t="n">
+        <v>77</v>
+      </c>
+      <c r="G62" s="0" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="H62" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I62" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="G62" s="0" t="n">
+      <c r="J62" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K62" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="H62" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I62" s="0" t="n">
+      <c r="L62" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="M62" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="N62" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O62" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="P62" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q62" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="R62" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S62" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="T62" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="U62" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="V62" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="W62" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="X62" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y62" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="Z62" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA62" s="0" t="n">
         <v>7</v>
       </c>
     </row>
@@ -2632,27 +6047,81 @@
         <v>62</v>
       </c>
       <c r="B63" s="0" t="s">
-        <v>130</v>
+        <v>148</v>
       </c>
       <c r="C63" s="0" t="s">
-        <v>131</v>
+        <v>149</v>
       </c>
       <c r="D63" s="0" t="n">
-        <v>10</v>
+        <v>110</v>
       </c>
       <c r="E63" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F63" s="0" t="n">
+        <v>77</v>
+      </c>
+      <c r="G63" s="0" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="H63" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I63" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="G63" s="0" t="n">
+      <c r="J63" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K63" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="H63" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I63" s="0" t="n">
+      <c r="L63" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="M63" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="N63" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O63" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="P63" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q63" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="R63" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S63" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="T63" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="U63" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="V63" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="W63" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="X63" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y63" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="Z63" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA63" s="0" t="n">
         <v>7</v>
       </c>
     </row>
@@ -2661,27 +6130,81 @@
         <v>63</v>
       </c>
       <c r="B64" s="0" t="s">
-        <v>132</v>
+        <v>150</v>
       </c>
       <c r="C64" s="0" t="s">
-        <v>133</v>
+        <v>151</v>
       </c>
       <c r="D64" s="0" t="n">
-        <v>10</v>
+        <v>110</v>
       </c>
       <c r="E64" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F64" s="0" t="n">
+        <v>77</v>
+      </c>
+      <c r="G64" s="0" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="H64" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I64" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="G64" s="0" t="n">
+      <c r="J64" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K64" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="H64" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I64" s="0" t="n">
+      <c r="L64" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="M64" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="N64" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O64" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="P64" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q64" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="R64" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S64" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="T64" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="U64" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="V64" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="W64" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="X64" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y64" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="Z64" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA64" s="0" t="n">
         <v>7</v>
       </c>
     </row>
@@ -2690,27 +6213,81 @@
         <v>64</v>
       </c>
       <c r="B65" s="0" t="s">
-        <v>134</v>
+        <v>152</v>
       </c>
       <c r="C65" s="0" t="s">
-        <v>135</v>
+        <v>153</v>
       </c>
       <c r="D65" s="0" t="n">
-        <v>10</v>
+        <v>110</v>
       </c>
       <c r="E65" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F65" s="0" t="n">
+        <v>66</v>
+      </c>
+      <c r="G65" s="0" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="H65" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I65" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="G65" s="0" t="n">
+      <c r="J65" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K65" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="H65" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I65" s="0" t="n">
+      <c r="L65" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="M65" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="N65" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O65" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="P65" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q65" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="R65" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S65" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="T65" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="U65" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="V65" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="W65" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="X65" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y65" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="Z65" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA65" s="0" t="n">
         <v>6</v>
       </c>
     </row>
@@ -2719,27 +6296,81 @@
         <v>65</v>
       </c>
       <c r="B66" s="0" t="s">
-        <v>136</v>
+        <v>154</v>
       </c>
       <c r="C66" s="0" t="s">
-        <v>137</v>
+        <v>155</v>
       </c>
       <c r="D66" s="0" t="n">
-        <v>10</v>
+        <v>110</v>
       </c>
       <c r="E66" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F66" s="0" t="n">
+        <v>66</v>
+      </c>
+      <c r="G66" s="0" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="H66" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I66" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="G66" s="0" t="n">
+      <c r="J66" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K66" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="H66" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I66" s="0" t="n">
+      <c r="L66" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="M66" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="N66" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O66" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="P66" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q66" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="R66" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S66" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="T66" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="U66" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="V66" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="W66" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="X66" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y66" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="Z66" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA66" s="0" t="n">
         <v>6</v>
       </c>
     </row>
@@ -2748,27 +6379,81 @@
         <v>66</v>
       </c>
       <c r="B67" s="0" t="s">
-        <v>138</v>
+        <v>156</v>
       </c>
       <c r="C67" s="0" t="s">
-        <v>139</v>
+        <v>157</v>
       </c>
       <c r="D67" s="0" t="n">
-        <v>10</v>
+        <v>110</v>
       </c>
       <c r="E67" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F67" s="0" t="n">
+        <v>66</v>
+      </c>
+      <c r="G67" s="0" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="H67" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I67" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="G67" s="0" t="n">
+      <c r="J67" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K67" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="H67" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I67" s="0" t="n">
+      <c r="L67" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="M67" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="N67" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O67" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="P67" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q67" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="R67" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S67" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="T67" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="U67" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="V67" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="W67" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="X67" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y67" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="Z67" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA67" s="0" t="n">
         <v>6</v>
       </c>
     </row>
@@ -2777,27 +6462,81 @@
         <v>67</v>
       </c>
       <c r="B68" s="0" t="s">
-        <v>140</v>
+        <v>158</v>
       </c>
       <c r="C68" s="0" t="s">
-        <v>141</v>
+        <v>159</v>
       </c>
       <c r="D68" s="0" t="n">
-        <v>10</v>
+        <v>110</v>
       </c>
       <c r="E68" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F68" s="0" t="n">
+        <v>66</v>
+      </c>
+      <c r="G68" s="0" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="H68" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I68" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="G68" s="0" t="n">
+      <c r="J68" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K68" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="H68" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I68" s="0" t="n">
+      <c r="L68" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="M68" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="N68" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O68" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="P68" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q68" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="R68" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S68" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="T68" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="U68" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="V68" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="W68" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="X68" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y68" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="Z68" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA68" s="0" t="n">
         <v>6</v>
       </c>
     </row>
@@ -2806,27 +6545,81 @@
         <v>68</v>
       </c>
       <c r="B69" s="0" t="s">
-        <v>142</v>
+        <v>160</v>
       </c>
       <c r="C69" s="0" t="s">
-        <v>143</v>
+        <v>161</v>
       </c>
       <c r="D69" s="0" t="n">
-        <v>10</v>
+        <v>110</v>
       </c>
       <c r="E69" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F69" s="0" t="n">
+        <v>66</v>
+      </c>
+      <c r="G69" s="0" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="H69" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I69" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="G69" s="0" t="n">
+      <c r="J69" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K69" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="H69" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I69" s="0" t="n">
+      <c r="L69" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="M69" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="N69" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O69" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="P69" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q69" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="R69" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S69" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="T69" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="U69" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="V69" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="W69" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="X69" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y69" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="Z69" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA69" s="0" t="n">
         <v>6</v>
       </c>
     </row>
@@ -2835,27 +6628,81 @@
         <v>69</v>
       </c>
       <c r="B70" s="0" t="s">
-        <v>144</v>
+        <v>162</v>
       </c>
       <c r="C70" s="0" t="s">
-        <v>145</v>
+        <v>163</v>
       </c>
       <c r="D70" s="0" t="n">
-        <v>10</v>
+        <v>110</v>
       </c>
       <c r="E70" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F70" s="0" t="n">
+        <v>66</v>
+      </c>
+      <c r="G70" s="0" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="H70" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I70" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="G70" s="0" t="n">
+      <c r="J70" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K70" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="H70" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I70" s="0" t="n">
+      <c r="L70" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="M70" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="N70" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O70" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="P70" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q70" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="R70" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S70" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="T70" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="U70" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="V70" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="W70" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="X70" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y70" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="Z70" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA70" s="0" t="n">
         <v>6</v>
       </c>
     </row>
@@ -2864,27 +6711,81 @@
         <v>70</v>
       </c>
       <c r="B71" s="0" t="s">
-        <v>146</v>
+        <v>164</v>
       </c>
       <c r="C71" s="0" t="s">
-        <v>147</v>
+        <v>165</v>
       </c>
       <c r="D71" s="0" t="n">
-        <v>10</v>
+        <v>110</v>
       </c>
       <c r="E71" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F71" s="0" t="n">
+        <v>66</v>
+      </c>
+      <c r="G71" s="0" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="H71" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I71" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="G71" s="0" t="n">
+      <c r="J71" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K71" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="H71" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I71" s="0" t="n">
+      <c r="L71" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="M71" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="N71" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O71" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="P71" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q71" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="R71" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S71" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="T71" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="U71" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="V71" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="W71" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="X71" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y71" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="Z71" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA71" s="0" t="n">
         <v>6</v>
       </c>
     </row>
@@ -2893,27 +6794,81 @@
         <v>71</v>
       </c>
       <c r="B72" s="0" t="s">
-        <v>148</v>
+        <v>166</v>
       </c>
       <c r="C72" s="0" t="s">
-        <v>149</v>
+        <v>167</v>
       </c>
       <c r="D72" s="0" t="n">
+        <v>110</v>
+      </c>
+      <c r="E72" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F72" s="0" t="n">
+        <v>55</v>
+      </c>
+      <c r="G72" s="0" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="H72" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I72" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="J72" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K72" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="L72" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="M72" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="N72" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O72" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="P72" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q72" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="E72" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F72" s="0" t="n">
+      <c r="R72" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S72" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="G72" s="0" t="n">
+      <c r="T72" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="U72" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="H72" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I72" s="0" t="n">
+      <c r="V72" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="W72" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="X72" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y72" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="Z72" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA72" s="0" t="n">
         <v>5</v>
       </c>
     </row>
@@ -2922,27 +6877,81 @@
         <v>72</v>
       </c>
       <c r="B73" s="0" t="s">
-        <v>150</v>
+        <v>168</v>
       </c>
       <c r="C73" s="0" t="s">
-        <v>151</v>
+        <v>169</v>
       </c>
       <c r="D73" s="0" t="n">
+        <v>110</v>
+      </c>
+      <c r="E73" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F73" s="0" t="n">
+        <v>55</v>
+      </c>
+      <c r="G73" s="0" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="H73" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I73" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="J73" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K73" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="L73" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="M73" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="N73" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O73" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="P73" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q73" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="E73" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F73" s="0" t="n">
+      <c r="R73" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S73" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="G73" s="0" t="n">
+      <c r="T73" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="U73" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="H73" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I73" s="0" t="n">
+      <c r="V73" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="W73" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="X73" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y73" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="Z73" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA73" s="0" t="n">
         <v>5</v>
       </c>
     </row>
@@ -2951,27 +6960,81 @@
         <v>73</v>
       </c>
       <c r="B74" s="0" t="s">
-        <v>152</v>
+        <v>170</v>
       </c>
       <c r="C74" s="0" t="s">
-        <v>152</v>
+        <v>170</v>
       </c>
       <c r="D74" s="0" t="n">
+        <v>110</v>
+      </c>
+      <c r="E74" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F74" s="0" t="n">
+        <v>55</v>
+      </c>
+      <c r="G74" s="0" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="H74" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I74" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="J74" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K74" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="L74" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="M74" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="N74" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O74" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="P74" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q74" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="E74" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F74" s="0" t="n">
+      <c r="R74" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S74" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="G74" s="0" t="n">
+      <c r="T74" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="U74" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="H74" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I74" s="0" t="n">
+      <c r="V74" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="W74" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="X74" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y74" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="Z74" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA74" s="0" t="n">
         <v>5</v>
       </c>
     </row>
@@ -2980,27 +7043,81 @@
         <v>74</v>
       </c>
       <c r="B75" s="0" t="s">
-        <v>153</v>
+        <v>171</v>
       </c>
       <c r="C75" s="0" t="s">
-        <v>154</v>
+        <v>172</v>
       </c>
       <c r="D75" s="0" t="n">
-        <v>10</v>
+        <v>110</v>
       </c>
       <c r="E75" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F75" s="0" t="n">
+        <v>44</v>
+      </c>
+      <c r="G75" s="0" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="H75" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I75" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="G75" s="0" t="n">
+      <c r="J75" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K75" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="H75" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I75" s="0" t="n">
+      <c r="L75" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="M75" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="N75" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O75" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="P75" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q75" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="R75" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S75" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="T75" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="U75" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="V75" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="W75" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="X75" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y75" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="Z75" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA75" s="0" t="n">
         <v>4</v>
       </c>
     </row>
@@ -3009,27 +7126,81 @@
         <v>75</v>
       </c>
       <c r="B76" s="0" t="s">
-        <v>155</v>
+        <v>173</v>
       </c>
       <c r="C76" s="0" t="s">
-        <v>156</v>
+        <v>174</v>
       </c>
       <c r="D76" s="0" t="n">
-        <v>10</v>
+        <v>110</v>
       </c>
       <c r="E76" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F76" s="0" t="n">
+        <v>44</v>
+      </c>
+      <c r="G76" s="0" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="H76" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I76" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="G76" s="0" t="n">
+      <c r="J76" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K76" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="H76" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I76" s="0" t="n">
+      <c r="L76" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="M76" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="N76" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O76" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="P76" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q76" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="R76" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S76" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="T76" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="U76" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="V76" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="W76" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="X76" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y76" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="Z76" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA76" s="0" t="n">
         <v>4</v>
       </c>
     </row>
@@ -3038,27 +7209,81 @@
         <v>76</v>
       </c>
       <c r="B77" s="0" t="s">
-        <v>157</v>
+        <v>175</v>
       </c>
       <c r="C77" s="0" t="s">
-        <v>158</v>
+        <v>176</v>
       </c>
       <c r="D77" s="0" t="n">
-        <v>10</v>
+        <v>110</v>
       </c>
       <c r="E77" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F77" s="0" t="n">
+        <v>44</v>
+      </c>
+      <c r="G77" s="0" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="H77" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I77" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="G77" s="0" t="n">
+      <c r="J77" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K77" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="H77" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I77" s="0" t="n">
+      <c r="L77" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="M77" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="N77" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O77" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="P77" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q77" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="R77" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S77" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="T77" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="U77" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="V77" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="W77" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="X77" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y77" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="Z77" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA77" s="0" t="n">
         <v>4</v>
       </c>
     </row>
@@ -3067,27 +7292,81 @@
         <v>77</v>
       </c>
       <c r="B78" s="0" t="s">
-        <v>159</v>
+        <v>177</v>
       </c>
       <c r="C78" s="0" t="s">
-        <v>160</v>
+        <v>178</v>
       </c>
       <c r="D78" s="0" t="n">
-        <v>10</v>
+        <v>110</v>
       </c>
       <c r="E78" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F78" s="0" t="n">
+        <v>44</v>
+      </c>
+      <c r="G78" s="0" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="H78" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I78" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="G78" s="0" t="n">
+      <c r="J78" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K78" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="H78" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I78" s="0" t="n">
+      <c r="L78" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="M78" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="N78" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O78" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="P78" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q78" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="R78" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S78" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="T78" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="U78" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="V78" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="W78" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="X78" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y78" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="Z78" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA78" s="0" t="n">
         <v>4</v>
       </c>
     </row>
@@ -3096,27 +7375,81 @@
         <v>78</v>
       </c>
       <c r="B79" s="0" t="s">
-        <v>161</v>
+        <v>179</v>
       </c>
       <c r="C79" s="0" t="s">
-        <v>162</v>
+        <v>180</v>
       </c>
       <c r="D79" s="0" t="n">
-        <v>10</v>
+        <v>110</v>
       </c>
       <c r="E79" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F79" s="0" t="n">
+        <v>33</v>
+      </c>
+      <c r="G79" s="0" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="H79" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I79" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="G79" s="0" t="n">
+      <c r="J79" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K79" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="H79" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I79" s="0" t="n">
+      <c r="L79" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="M79" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="N79" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O79" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="P79" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q79" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="R79" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S79" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="T79" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="U79" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="V79" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="W79" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="X79" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y79" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z79" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA79" s="0" t="n">
         <v>3</v>
       </c>
     </row>
@@ -3125,27 +7458,81 @@
         <v>79</v>
       </c>
       <c r="B80" s="0" t="s">
-        <v>163</v>
+        <v>181</v>
       </c>
       <c r="C80" s="0" t="s">
-        <v>164</v>
+        <v>182</v>
       </c>
       <c r="D80" s="0" t="n">
-        <v>10</v>
+        <v>110</v>
       </c>
       <c r="E80" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F80" s="0" t="n">
+        <v>33</v>
+      </c>
+      <c r="G80" s="0" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="H80" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I80" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="G80" s="0" t="n">
+      <c r="J80" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K80" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="H80" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I80" s="0" t="n">
+      <c r="L80" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="M80" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="N80" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O80" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="P80" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q80" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="R80" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S80" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="T80" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="U80" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="V80" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="W80" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="X80" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y80" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z80" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA80" s="0" t="n">
         <v>3</v>
       </c>
     </row>
@@ -3154,28 +7541,165 @@
         <v>80</v>
       </c>
       <c r="B81" s="0" t="s">
-        <v>165</v>
+        <v>183</v>
       </c>
       <c r="C81" s="0" t="s">
-        <v>166</v>
+        <v>184</v>
       </c>
       <c r="D81" s="0" t="n">
+        <v>110</v>
+      </c>
+      <c r="E81" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F81" s="0" t="n">
+        <v>22</v>
+      </c>
+      <c r="G81" s="0" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="H81" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I81" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="J81" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K81" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="L81" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="M81" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="N81" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O81" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="P81" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q81" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="R81" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S81" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="T81" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="U81" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="V81" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="W81" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="X81" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y81" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="Z81" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA81" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="0" t="n">
+        <v>81</v>
+      </c>
+      <c r="B82" s="0" t="s">
+        <v>185</v>
+      </c>
+      <c r="C82" s="0" t="s">
+        <v>186</v>
+      </c>
+      <c r="D82" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="E81" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F81" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="G81" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="H81" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I81" s="0" t="n">
-        <v>2</v>
+      <c r="E82" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F82" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G82" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H82" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I82" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J82" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K82" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L82" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="M82" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N82" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O82" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P82" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q82" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="R82" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S82" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="T82" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="U82" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="V82" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="W82" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="X82" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y82" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z82" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA82" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/output/apl_standings.xlsx
+++ b/output/apl_standings.xlsx
@@ -4,26 +4,48 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Standings" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1" refMode="A1" iterate="0" iterateCount="100" iterateDelta="0.0001"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="6">
     <font>
       <name val="Calibri"/>
+      <charset val="1"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
-      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <family val="0"/>
+      <sz val="10"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <family val="0"/>
+      <sz val="10"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <family val="0"/>
+      <sz val="10"/>
+    </font>
+    <font>
+      <name val="Cambria"/>
+      <charset val="1"/>
+      <family val="0"/>
+      <b val="1"/>
+      <sz val="11"/>
     </font>
     <font>
       <b val="1"/>
@@ -37,7 +59,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -50,21 +72,61 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="6">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+  <cellStyles count="6">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="2" builtinId="6"/>
+    <cellStyle name="Currency" xfId="3" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
+    <cellStyle name="Percent" xfId="5" builtinId="5"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <dxfs count="2">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF000000"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -137,41 +199,41 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:srgbClr val="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:srgbClr val="ffffff"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="1F497D"/>
+        <a:srgbClr val="1f497d"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="EEECE1"/>
+        <a:srgbClr val="eeece1"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4F81BD"/>
+        <a:srgbClr val="4f81bd"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="C0504D"/>
+        <a:srgbClr val="c0504d"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="9BBB59"/>
+        <a:srgbClr val="9bbb59"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="8064A2"/>
+        <a:srgbClr val="8064a2"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4BACC6"/>
+        <a:srgbClr val="4bacc6"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="F79646"/>
+        <a:srgbClr val="f79646"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0000FF"/>
+        <a:srgbClr val="0000ff"/>
       </a:hlink>
       <a:folHlink>
         <a:srgbClr val="800080"/>
@@ -179,243 +241,135 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" pitchFamily="0" charset="1"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" pitchFamily="0" charset="1"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme>
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill>
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
                 <a:tint val="50000"/>
-                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="35000">
               <a:schemeClr val="phClr">
                 <a:tint val="37000"/>
-                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
                 <a:tint val="15000"/>
-                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
           <a:lin ang="16200000" scaled="1"/>
+          <a:tileRect l="0" t="0" r="0" b="0"/>
         </a:gradFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill>
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
                 <a:shade val="51000"/>
-                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="80000">
               <a:schemeClr val="phClr">
                 <a:shade val="93000"/>
-                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
                 <a:shade val="94000"/>
-                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
           <a:lin ang="16200000" scaled="0"/>
+          <a:tileRect l="0" t="0" r="0" b="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
         <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
-              <a:satMod val="105000"/>
-            </a:schemeClr>
-          </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
         <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
         <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
+          <a:effectLst/>
         </a:effectStyle>
         <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
+          <a:effectLst/>
         </a:effectStyle>
         <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-          <a:scene3d>
-            <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
-            </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
-            </a:lightRig>
-          </a:scene3d>
-          <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
-          </a:sp3d>
+          <a:effectLst/>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill>
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
                 <a:tint val="40000"/>
-                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="40000">
               <a:schemeClr val="phClr">
                 <a:tint val="45000"/>
                 <a:shade val="99000"/>
-                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
                 <a:shade val="20000"/>
-                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
             <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
           </a:path>
+          <a:tileRect l="0" t="0" r="0" b="0"/>
         </a:gradFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill>
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
                 <a:tint val="80000"/>
-                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
                 <a:shade val="30000"/>
-                <a:satMod val="200000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
             <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
           </a:path>
+          <a:tileRect l="0" t="0" r="0" b="0"/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
@@ -425,7 +379,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I81"/>
+  <dimension ref="A1:I85"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,47 +388,47 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="A1" s="2" t="inlineStr">
         <is>
           <t>Місце</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>User ID</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>Ім'я</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>Матчі</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="E1" s="2" t="inlineStr">
         <is>
           <t>Точні прогнози матчів</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>Загальні бали</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
         <is>
           <t>Середня кількість балів за тури</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>Тур 1 Точні прогнози матчів</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="I1" s="2" t="inlineStr">
         <is>
           <t>Тур 1 бали</t>
         </is>
@@ -651,12 +605,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>U0046</t>
+          <t>U0013</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Сергій Іващук</t>
+          <t>Колян</t>
         </is>
       </c>
       <c r="D7" t="n">
@@ -684,12 +638,12 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>U0052</t>
+          <t>U0046</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Андрюха 44</t>
+          <t>Сергій Іващук</t>
         </is>
       </c>
       <c r="D8" t="n">
@@ -717,19 +671,19 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>U0062</t>
+          <t>U0052</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Ruslan</t>
+          <t>Андрюха 44</t>
         </is>
       </c>
       <c r="D9" t="n">
         <v>10</v>
       </c>
       <c r="E9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F9" t="n">
         <v>14</v>
@@ -738,7 +692,7 @@
         <v>14</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I9" t="n">
         <v>14</v>
@@ -750,31 +704,31 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>U0014</t>
+          <t>U0049</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Андрій</t>
+          <t>Nick Grain</t>
         </is>
       </c>
       <c r="D10" t="n">
         <v>10</v>
       </c>
       <c r="E10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F10" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G10" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I10" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11">
@@ -783,31 +737,31 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>U0060</t>
+          <t>U0062</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Антон 7</t>
+          <t>Ruslan</t>
         </is>
       </c>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F11" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G11" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I11" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12">
@@ -816,12 +770,12 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>U0076</t>
+          <t>U0014</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Ilya</t>
+          <t>Андрій</t>
         </is>
       </c>
       <c r="D12" t="n">
@@ -849,19 +803,19 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>U0001</t>
+          <t>U0060</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Mashka</t>
+          <t>Антон 7</t>
         </is>
       </c>
       <c r="D13" t="n">
         <v>10</v>
       </c>
       <c r="E13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F13" t="n">
         <v>13</v>
@@ -870,7 +824,7 @@
         <v>13</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I13" t="n">
         <v>13</v>
@@ -882,12 +836,12 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>U0010</t>
+          <t>U0076</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>49785 Дмитро</t>
+          <t>Ilya</t>
         </is>
       </c>
       <c r="D14" t="n">
@@ -897,16 +851,16 @@
         <v>2</v>
       </c>
       <c r="F14" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G14" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H14" t="n">
         <v>2</v>
       </c>
       <c r="I14" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15">
@@ -915,31 +869,31 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>U0051</t>
+          <t>U0001</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Валентина</t>
+          <t>Mashka</t>
         </is>
       </c>
       <c r="D15" t="n">
         <v>10</v>
       </c>
       <c r="E15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F15" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G15" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I15" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16">
@@ -948,19 +902,19 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>U0008</t>
+          <t>U0010</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Oleksandr</t>
+          <t>49785 Дмитро</t>
         </is>
       </c>
       <c r="D16" t="n">
         <v>10</v>
       </c>
       <c r="E16" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F16" t="n">
         <v>12</v>
@@ -969,7 +923,7 @@
         <v>12</v>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I16" t="n">
         <v>12</v>
@@ -981,19 +935,19 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>U0113</t>
+          <t>U0043</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Роман Гарасим</t>
+          <t>Vovchuk</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E17" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F17" t="n">
         <v>12</v>
@@ -1002,7 +956,7 @@
         <v>12</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I17" t="n">
         <v>12</v>
@@ -1014,12 +968,12 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>U0027</t>
+          <t>U0051</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Сергій Гамоля</t>
+          <t>Валентина</t>
         </is>
       </c>
       <c r="D18" t="n">
@@ -1029,16 +983,16 @@
         <v>2</v>
       </c>
       <c r="F18" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G18" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H18" t="n">
         <v>2</v>
       </c>
       <c r="I18" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19">
@@ -1047,31 +1001,31 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>U0041</t>
+          <t>U0008</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Коля)))</t>
+          <t>Oleksandr</t>
         </is>
       </c>
       <c r="D19" t="n">
         <v>10</v>
       </c>
       <c r="E19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F19" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G19" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I19" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="20">
@@ -1080,12 +1034,12 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>U0004</t>
+          <t>U0113</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Олександр Мїхно</t>
+          <t>Роман Гарасим</t>
         </is>
       </c>
       <c r="D20" t="n">
@@ -1095,16 +1049,16 @@
         <v>1</v>
       </c>
       <c r="F20" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G20" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H20" t="n">
         <v>1</v>
       </c>
       <c r="I20" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="21">
@@ -1113,19 +1067,19 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>U0006</t>
+          <t>U0027</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Довгань Валентин</t>
+          <t>Сергій Гамоля</t>
         </is>
       </c>
       <c r="D21" t="n">
         <v>10</v>
       </c>
       <c r="E21" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F21" t="n">
         <v>11</v>
@@ -1134,7 +1088,7 @@
         <v>11</v>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I21" t="n">
         <v>11</v>
@@ -1146,19 +1100,19 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>U0018</t>
+          <t>U0041</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Yaroslav</t>
+          <t>Коля)))</t>
         </is>
       </c>
       <c r="D22" t="n">
         <v>10</v>
       </c>
       <c r="E22" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F22" t="n">
         <v>11</v>
@@ -1167,7 +1121,7 @@
         <v>11</v>
       </c>
       <c r="H22" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I22" t="n">
         <v>11</v>
@@ -1179,12 +1133,12 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>U0022</t>
+          <t>U0004</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Олег Lemberg</t>
+          <t>Олександр Мїхно</t>
         </is>
       </c>
       <c r="D23" t="n">
@@ -1212,12 +1166,12 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>U0031</t>
+          <t>U0006</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Sergio</t>
+          <t>Довгань Валентин</t>
         </is>
       </c>
       <c r="D24" t="n">
@@ -1245,12 +1199,12 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>U0032</t>
+          <t>U0018</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Анатолий Бабич</t>
+          <t>Yaroslav</t>
         </is>
       </c>
       <c r="D25" t="n">
@@ -1278,12 +1232,12 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>U0034</t>
+          <t>U0022</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>AA AA</t>
+          <t>Олег Lemberg</t>
         </is>
       </c>
       <c r="D26" t="n">
@@ -1311,12 +1265,12 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>U0038</t>
+          <t>U0031</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>TSE</t>
+          <t>Sergio</t>
         </is>
       </c>
       <c r="D27" t="n">
@@ -1344,12 +1298,12 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>U0044</t>
+          <t>U0032</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>MaxСпільнота</t>
+          <t>Анатолий Бабич</t>
         </is>
       </c>
       <c r="D28" t="n">
@@ -1377,12 +1331,12 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>U0054</t>
+          <t>U0034</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Kolya Kagarluk</t>
+          <t>AA AA</t>
         </is>
       </c>
       <c r="D29" t="n">
@@ -1410,12 +1364,12 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>U0058</t>
+          <t>U0038</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Uri</t>
+          <t>TSE</t>
         </is>
       </c>
       <c r="D30" t="n">
@@ -1443,12 +1397,12 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>U0061</t>
+          <t>U0044</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Дмитро</t>
+          <t>MaxСпільнота</t>
         </is>
       </c>
       <c r="D31" t="n">
@@ -1476,12 +1430,12 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>U0078</t>
+          <t>U0054</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Nazar</t>
+          <t>Kolya Kagarluk</t>
         </is>
       </c>
       <c r="D32" t="n">
@@ -1509,12 +1463,12 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>U0002</t>
+          <t>U0058</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Sheva</t>
+          <t>Uri</t>
         </is>
       </c>
       <c r="D33" t="n">
@@ -1524,16 +1478,16 @@
         <v>1</v>
       </c>
       <c r="F33" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G33" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H33" t="n">
         <v>1</v>
       </c>
       <c r="I33" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="34">
@@ -1542,12 +1496,12 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>U0017</t>
+          <t>U0061</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Світлана Петух</t>
+          <t>Дмитро</t>
         </is>
       </c>
       <c r="D34" t="n">
@@ -1557,16 +1511,16 @@
         <v>1</v>
       </c>
       <c r="F34" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G34" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H34" t="n">
         <v>1</v>
       </c>
       <c r="I34" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="35">
@@ -1575,12 +1529,12 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>U0037</t>
+          <t>U0078</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Yaroslav Sokhan</t>
+          <t>Nazar</t>
         </is>
       </c>
       <c r="D35" t="n">
@@ -1590,16 +1544,16 @@
         <v>1</v>
       </c>
       <c r="F35" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G35" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H35" t="n">
         <v>1</v>
       </c>
       <c r="I35" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="36">
@@ -1608,16 +1562,16 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>U0093</t>
+          <t>U0002</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Влад🐮</t>
+          <t>Sheva</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E36" t="n">
         <v>1</v>
@@ -1641,19 +1595,19 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>U0067</t>
+          <t>U0017</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Тарас</t>
+          <t>Світлана Петух</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F37" t="n">
         <v>10</v>
@@ -1662,7 +1616,7 @@
         <v>10</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I37" t="n">
         <v>10</v>
@@ -1674,12 +1628,12 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>U0005</t>
+          <t>U0037</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Дмитро Кушнір</t>
+          <t>Yaroslav Sokhan</t>
         </is>
       </c>
       <c r="D38" t="n">
@@ -1689,16 +1643,16 @@
         <v>1</v>
       </c>
       <c r="F38" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G38" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H38" t="n">
         <v>1</v>
       </c>
       <c r="I38" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="39">
@@ -1707,31 +1661,31 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>U0072</t>
+          <t>U0093</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Олег Москальов</t>
+          <t>Влад🐮</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E39" t="n">
         <v>1</v>
       </c>
       <c r="F39" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G39" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H39" t="n">
         <v>1</v>
       </c>
       <c r="I39" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="40">
@@ -1740,31 +1694,31 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>U0073</t>
+          <t>U0067</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Nikita</t>
+          <t>Тарас</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G40" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="41">
@@ -1773,12 +1727,12 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>U0085</t>
+          <t>U0005</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Лисий Артета</t>
+          <t>Дмитро Кушнір</t>
         </is>
       </c>
       <c r="D41" t="n">
@@ -1806,19 +1760,19 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>U0019</t>
+          <t>U0072</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Анд</t>
+          <t>Олег Москальов</t>
         </is>
       </c>
       <c r="D42" t="n">
         <v>10</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F42" t="n">
         <v>9</v>
@@ -1827,7 +1781,7 @@
         <v>9</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I42" t="n">
         <v>9</v>
@@ -1839,19 +1793,19 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>U0024</t>
+          <t>U0073</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Максим Sliusar</t>
+          <t>Nikita</t>
         </is>
       </c>
       <c r="D43" t="n">
         <v>10</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F43" t="n">
         <v>9</v>
@@ -1860,7 +1814,7 @@
         <v>9</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I43" t="n">
         <v>9</v>
@@ -1872,19 +1826,19 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>U0096</t>
+          <t>U0085</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Виктор Жигулин</t>
+          <t>Лисий Артета</t>
         </is>
       </c>
       <c r="D44" t="n">
         <v>10</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F44" t="n">
         <v>9</v>
@@ -1893,7 +1847,7 @@
         <v>9</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I44" t="n">
         <v>9</v>
@@ -1905,12 +1859,12 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>U0115</t>
+          <t>U0019</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Андрій Яковів</t>
+          <t>Анд</t>
         </is>
       </c>
       <c r="D45" t="n">
@@ -1938,12 +1892,12 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>U0204</t>
+          <t>U0024</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Юрій</t>
+          <t>Максим Sliusar</t>
         </is>
       </c>
       <c r="D46" t="n">
@@ -1971,31 +1925,31 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>U0021</t>
+          <t>U0096</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Стефано Бандерас</t>
+          <t>Виктор Жигулин</t>
         </is>
       </c>
       <c r="D47" t="n">
         <v>10</v>
       </c>
       <c r="E47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F47" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G47" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I47" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="48">
@@ -2004,31 +1958,31 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>U0059</t>
+          <t>U0115</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Алексей</t>
+          <t>Андрій Яковів</t>
         </is>
       </c>
       <c r="D48" t="n">
         <v>10</v>
       </c>
       <c r="E48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F48" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G48" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I48" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="49">
@@ -2037,31 +1991,31 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>U0086</t>
+          <t>U0204</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Денис (True)</t>
+          <t>Юрій</t>
         </is>
       </c>
       <c r="D49" t="n">
         <v>10</v>
       </c>
       <c r="E49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F49" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G49" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I49" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="50">
@@ -2070,12 +2024,12 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>U0090</t>
+          <t>U0021</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Петров Роман</t>
+          <t>Стефано Бандерас</t>
         </is>
       </c>
       <c r="D50" t="n">
@@ -2103,19 +2057,19 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>U0009</t>
+          <t>U0059</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Олександр Миргородський</t>
+          <t>Алексей</t>
         </is>
       </c>
       <c r="D51" t="n">
         <v>10</v>
       </c>
       <c r="E51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F51" t="n">
         <v>8</v>
@@ -2124,7 +2078,7 @@
         <v>8</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I51" t="n">
         <v>8</v>
@@ -2136,19 +2090,19 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>U0011</t>
+          <t>U0086</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Володимир:)</t>
+          <t>Денис (True)</t>
         </is>
       </c>
       <c r="D52" t="n">
         <v>10</v>
       </c>
       <c r="E52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F52" t="n">
         <v>8</v>
@@ -2157,7 +2111,7 @@
         <v>8</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I52" t="n">
         <v>8</v>
@@ -2169,19 +2123,19 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>U0020</t>
+          <t>U0090</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Александр 25</t>
+          <t>Петров Роман</t>
         </is>
       </c>
       <c r="D53" t="n">
         <v>10</v>
       </c>
       <c r="E53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F53" t="n">
         <v>8</v>
@@ -2190,7 +2144,7 @@
         <v>8</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I53" t="n">
         <v>8</v>
@@ -2202,12 +2156,12 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>U0029</t>
+          <t>U0009</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Рома Назарчук</t>
+          <t>Олександр Миргородський</t>
         </is>
       </c>
       <c r="D54" t="n">
@@ -2235,12 +2189,12 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>U0045</t>
+          <t>U0011</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Борислав</t>
+          <t>Володимир:)</t>
         </is>
       </c>
       <c r="D55" t="n">
@@ -2268,12 +2222,12 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>U0053</t>
+          <t>U0020</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>U0053</t>
+          <t>Александр 25</t>
         </is>
       </c>
       <c r="D56" t="n">
@@ -2301,12 +2255,12 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>U0114</t>
+          <t>U0029</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Maryna Suckhova</t>
+          <t>Рома Назарчук</t>
         </is>
       </c>
       <c r="D57" t="n">
@@ -2334,12 +2288,12 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>U0125</t>
+          <t>U0040</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Світлана ПІТЕЦЬКА</t>
+          <t>Den1993 Den1993</t>
         </is>
       </c>
       <c r="D58" t="n">
@@ -2367,12 +2321,12 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>U0131</t>
+          <t>U0045</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>adm M</t>
+          <t>Борислав</t>
         </is>
       </c>
       <c r="D59" t="n">
@@ -2400,12 +2354,12 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>U0023</t>
+          <t>U0050</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>ZeRo</t>
+          <t>Володимир Корзаченко</t>
         </is>
       </c>
       <c r="D60" t="n">
@@ -2415,16 +2369,16 @@
         <v>0</v>
       </c>
       <c r="F60" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G60" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
       </c>
       <c r="I60" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="61">
@@ -2433,12 +2387,12 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>U0030</t>
+          <t>U0053</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Лазиз Джумаев</t>
+          <t>U0053</t>
         </is>
       </c>
       <c r="D61" t="n">
@@ -2448,16 +2402,16 @@
         <v>0</v>
       </c>
       <c r="F61" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G61" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
       </c>
       <c r="I61" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="62">
@@ -2466,12 +2420,12 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>U0050</t>
+          <t>U0114</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Володимир Корзаченко</t>
+          <t>Maryna Suckhova</t>
         </is>
       </c>
       <c r="D62" t="n">
@@ -2481,16 +2435,16 @@
         <v>0</v>
       </c>
       <c r="F62" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G62" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
       </c>
       <c r="I62" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="63">
@@ -2499,12 +2453,12 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>U0068</t>
+          <t>U0125</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Kostritsa Bogdan</t>
+          <t>Світлана ПІТЕЦЬКА</t>
         </is>
       </c>
       <c r="D63" t="n">
@@ -2514,16 +2468,16 @@
         <v>0</v>
       </c>
       <c r="F63" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G63" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
       </c>
       <c r="I63" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="64">
@@ -2532,12 +2486,12 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>U0082</t>
+          <t>U0131</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Віктор Л.</t>
+          <t>adm M</t>
         </is>
       </c>
       <c r="D64" t="n">
@@ -2547,16 +2501,16 @@
         <v>0</v>
       </c>
       <c r="F64" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G64" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
       </c>
       <c r="I64" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="65">
@@ -2565,12 +2519,12 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>U0003</t>
+          <t>U0023</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Виталий</t>
+          <t>ZeRo</t>
         </is>
       </c>
       <c r="D65" t="n">
@@ -2580,16 +2534,16 @@
         <v>0</v>
       </c>
       <c r="F65" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G65" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
       </c>
       <c r="I65" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="66">
@@ -2598,12 +2552,12 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>U0012</t>
+          <t>U0030</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Shalamay Volodymyr</t>
+          <t>Лазиз Джумаев</t>
         </is>
       </c>
       <c r="D66" t="n">
@@ -2613,16 +2567,16 @@
         <v>0</v>
       </c>
       <c r="F66" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G66" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
       </c>
       <c r="I66" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="67">
@@ -2631,12 +2585,12 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>U0028</t>
+          <t>U0068</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Sasha L</t>
+          <t>Kostritsa Bogdan</t>
         </is>
       </c>
       <c r="D67" t="n">
@@ -2646,16 +2600,16 @@
         <v>0</v>
       </c>
       <c r="F67" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G67" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
       </c>
       <c r="I67" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="68">
@@ -2664,12 +2618,12 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>U0055</t>
+          <t>U0082</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>ЯРОСЛАВ</t>
+          <t>Віктор Л.</t>
         </is>
       </c>
       <c r="D68" t="n">
@@ -2679,16 +2633,16 @@
         <v>0</v>
       </c>
       <c r="F68" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G68" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
       </c>
       <c r="I68" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="69">
@@ -2697,12 +2651,12 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>U0066</t>
+          <t>U0003</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Алик Худинец</t>
+          <t>Виталий</t>
         </is>
       </c>
       <c r="D69" t="n">
@@ -2730,12 +2684,12 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>U0077</t>
+          <t>U0012</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Artic</t>
+          <t>Shalamay Volodymyr</t>
         </is>
       </c>
       <c r="D70" t="n">
@@ -2763,12 +2717,12 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>U0081</t>
+          <t>U0028</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Виталий Волошин</t>
+          <t>Sasha L</t>
         </is>
       </c>
       <c r="D71" t="n">
@@ -2796,12 +2750,12 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>U0025</t>
+          <t>U0055</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Vladyslav</t>
+          <t>ЯРОСЛАВ</t>
         </is>
       </c>
       <c r="D72" t="n">
@@ -2811,16 +2765,16 @@
         <v>0</v>
       </c>
       <c r="F72" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G72" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
       </c>
       <c r="I72" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="73">
@@ -2829,12 +2783,12 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>U0035</t>
+          <t>U0066</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Marvel (Santa)</t>
+          <t>Алик Худинец</t>
         </is>
       </c>
       <c r="D73" t="n">
@@ -2844,16 +2798,16 @@
         <v>0</v>
       </c>
       <c r="F73" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G73" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
       </c>
       <c r="I73" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="74">
@@ -2862,12 +2816,12 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>U0056</t>
+          <t>U0077</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>U0056</t>
+          <t>Artic</t>
         </is>
       </c>
       <c r="D74" t="n">
@@ -2877,16 +2831,16 @@
         <v>0</v>
       </c>
       <c r="F74" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G74" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
       </c>
       <c r="I74" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="75">
@@ -2895,12 +2849,12 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>U0033</t>
+          <t>U0081</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>SoloWay</t>
+          <t>Виталий Волошин</t>
         </is>
       </c>
       <c r="D75" t="n">
@@ -2910,16 +2864,16 @@
         <v>0</v>
       </c>
       <c r="F75" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G75" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
       </c>
       <c r="I75" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="76">
@@ -2928,12 +2882,12 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>U0036</t>
+          <t>U0025</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Зайка</t>
+          <t>Vladyslav</t>
         </is>
       </c>
       <c r="D76" t="n">
@@ -2943,16 +2897,16 @@
         <v>0</v>
       </c>
       <c r="F76" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G76" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
       </c>
       <c r="I76" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="77">
@@ -2961,12 +2915,12 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>U0074</t>
+          <t>U0035</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Дмитро Хлонь</t>
+          <t>Marvel (Santa)</t>
         </is>
       </c>
       <c r="D77" t="n">
@@ -2976,16 +2930,16 @@
         <v>0</v>
       </c>
       <c r="F77" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G77" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
       </c>
       <c r="I77" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="78">
@@ -2994,12 +2948,12 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>U0083</t>
+          <t>U0056</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Богдан Д.</t>
+          <t>U0056</t>
         </is>
       </c>
       <c r="D78" t="n">
@@ -3009,16 +2963,16 @@
         <v>0</v>
       </c>
       <c r="F78" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G78" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
       </c>
       <c r="I78" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="79">
@@ -3027,12 +2981,12 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>U0015</t>
+          <t>U0033</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Alex</t>
+          <t>SoloWay</t>
         </is>
       </c>
       <c r="D79" t="n">
@@ -3042,16 +2996,16 @@
         <v>0</v>
       </c>
       <c r="F79" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G79" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
       </c>
       <c r="I79" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="80">
@@ -3060,12 +3014,12 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>U0127</t>
+          <t>U0036</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>ProD1m41kSto</t>
+          <t>Зайка</t>
         </is>
       </c>
       <c r="D80" t="n">
@@ -3075,16 +3029,16 @@
         <v>0</v>
       </c>
       <c r="F80" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G80" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
       </c>
       <c r="I80" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="81">
@@ -3093,30 +3047,162 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
+          <t>U0074</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>Дмитро Хлонь</t>
+        </is>
+      </c>
+      <c r="D81" t="n">
+        <v>10</v>
+      </c>
+      <c r="E81" t="n">
+        <v>0</v>
+      </c>
+      <c r="F81" t="n">
+        <v>4</v>
+      </c>
+      <c r="G81" t="n">
+        <v>4</v>
+      </c>
+      <c r="H81" t="n">
+        <v>0</v>
+      </c>
+      <c r="I81" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>81</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>U0083</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>Богдан Д.</t>
+        </is>
+      </c>
+      <c r="D82" t="n">
+        <v>10</v>
+      </c>
+      <c r="E82" t="n">
+        <v>0</v>
+      </c>
+      <c r="F82" t="n">
+        <v>4</v>
+      </c>
+      <c r="G82" t="n">
+        <v>4</v>
+      </c>
+      <c r="H82" t="n">
+        <v>0</v>
+      </c>
+      <c r="I82" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>82</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>U0015</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>Alex</t>
+        </is>
+      </c>
+      <c r="D83" t="n">
+        <v>10</v>
+      </c>
+      <c r="E83" t="n">
+        <v>0</v>
+      </c>
+      <c r="F83" t="n">
+        <v>3</v>
+      </c>
+      <c r="G83" t="n">
+        <v>3</v>
+      </c>
+      <c r="H83" t="n">
+        <v>0</v>
+      </c>
+      <c r="I83" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>83</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>U0127</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>ProD1m41kSto</t>
+        </is>
+      </c>
+      <c r="D84" t="n">
+        <v>10</v>
+      </c>
+      <c r="E84" t="n">
+        <v>0</v>
+      </c>
+      <c r="F84" t="n">
+        <v>3</v>
+      </c>
+      <c r="G84" t="n">
+        <v>3</v>
+      </c>
+      <c r="H84" t="n">
+        <v>0</v>
+      </c>
+      <c r="I84" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>84</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
           <t>U0048</t>
         </is>
       </c>
-      <c r="C81" t="inlineStr">
+      <c r="C85" t="inlineStr">
         <is>
           <t>Ігор Гаврилець</t>
         </is>
       </c>
-      <c r="D81" t="n">
-        <v>10</v>
-      </c>
-      <c r="E81" t="n">
-        <v>0</v>
-      </c>
-      <c r="F81" t="n">
+      <c r="D85" t="n">
+        <v>10</v>
+      </c>
+      <c r="E85" t="n">
+        <v>0</v>
+      </c>
+      <c r="F85" t="n">
         <v>2</v>
       </c>
-      <c r="G81" t="n">
+      <c r="G85" t="n">
         <v>2</v>
       </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
-      <c r="I81" t="n">
+      <c r="H85" t="n">
+        <v>0</v>
+      </c>
+      <c r="I85" t="n">
         <v>2</v>
       </c>
     </row>
